--- a/시장분석용_정보/시장분석용_4831051000.xlsx
+++ b/시장분석용_정보/시장분석용_4831051000.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="40">
   <si>
     <t>sim_cd</t>
   </si>
@@ -53,54 +53,6 @@
   </si>
   <si>
     <t>AVG_AMT</t>
-  </si>
-  <si>
-    <t>WK_RT</t>
-  </si>
-  <si>
-    <t>WE_RT</t>
-  </si>
-  <si>
-    <t>WK_1_RT</t>
-  </si>
-  <si>
-    <t>WK_2_RT</t>
-  </si>
-  <si>
-    <t>WK_3_RT</t>
-  </si>
-  <si>
-    <t>WK_4_RT</t>
-  </si>
-  <si>
-    <t>WK_5_RT</t>
-  </si>
-  <si>
-    <t>WK_6_RT</t>
-  </si>
-  <si>
-    <t>WK_7_RT</t>
-  </si>
-  <si>
-    <t>TIME_0510_RT</t>
-  </si>
-  <si>
-    <t>TIME_1114_RT</t>
-  </si>
-  <si>
-    <t>TIME_1517_RT</t>
-  </si>
-  <si>
-    <t>TIME_1819_RT</t>
-  </si>
-  <si>
-    <t>TIME_2021_RT</t>
-  </si>
-  <si>
-    <t>TIME_2224_RT</t>
-  </si>
-  <si>
-    <t>TIME_0104_RT</t>
   </si>
   <si>
     <t>F20_RT</t>
@@ -539,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AV59"/>
+  <dimension ref="A1:AF59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:48">
+    <row r="1" spans="1:32">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -639,64 +591,16 @@
       <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>46</v>
-      </c>
     </row>
-    <row r="2" spans="1:48">
+    <row r="2" spans="1:32">
       <c r="A2" s="1">
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D2">
         <v>202001</v>
@@ -708,10 +612,10 @@
         <v>6128201787</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I2">
         <v>4831051000</v>
@@ -720,7 +624,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L2">
         <v>383427442</v>
@@ -732,117 +636,69 @@
         <v>49538.42919896641</v>
       </c>
       <c r="O2">
-        <v>83.70570729924437</v>
+        <v>1.962440822584629</v>
       </c>
       <c r="P2">
-        <v>16.29429270075563</v>
+        <v>12.77546066640165</v>
       </c>
       <c r="Q2">
-        <v>2.456885188071646</v>
+        <v>12.94707512429431</v>
       </c>
       <c r="R2">
-        <v>15.62428277757438</v>
+        <v>9.812240963180722</v>
       </c>
       <c r="S2">
-        <v>11.98094046854893</v>
+        <v>7.762962436580113</v>
       </c>
       <c r="T2">
-        <v>14.78694188469171</v>
+        <v>2.683381291133564</v>
       </c>
       <c r="U2">
-        <v>26.688860382664</v>
+        <v>12.0082331667591</v>
       </c>
       <c r="V2">
-        <v>19.75202267864803</v>
+        <v>20.74150035403569</v>
       </c>
       <c r="W2">
-        <v>8.720066619801303</v>
+        <v>9.590190646839512</v>
       </c>
       <c r="X2">
-        <v>46.12698723689682</v>
+        <v>9.706562012246374</v>
       </c>
       <c r="Y2">
-        <v>31.01571651180877</v>
+        <v>0.7464386958250109</v>
       </c>
       <c r="Z2">
-        <v>14.51001063379809</v>
+        <v>0.6470276402386452</v>
       </c>
       <c r="AA2">
-        <v>2.993591073718715</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>1.159744154592879</v>
+        <v>13.26753153972219</v>
       </c>
       <c r="AC2">
-        <v>1.904824237932349</v>
+        <v>52.14480510218672</v>
       </c>
       <c r="AD2">
-        <v>2.2890786671967</v>
+        <v>17.92321899260408</v>
       </c>
       <c r="AE2">
-        <v>1.962440822584629</v>
+        <v>13.27834727061607</v>
       </c>
       <c r="AF2">
-        <v>12.77546066640165</v>
-      </c>
-      <c r="AG2">
-        <v>12.94707512429431</v>
-      </c>
-      <c r="AH2">
-        <v>9.812240963180722</v>
-      </c>
-      <c r="AI2">
-        <v>7.762962436580113</v>
-      </c>
-      <c r="AJ2">
-        <v>2.683381291133564</v>
-      </c>
-      <c r="AK2">
-        <v>12.0082331667591</v>
-      </c>
-      <c r="AL2">
-        <v>20.74150035403569</v>
-      </c>
-      <c r="AM2">
-        <v>9.590190646839512</v>
-      </c>
-      <c r="AN2">
-        <v>9.706562012246374</v>
-      </c>
-      <c r="AO2">
-        <v>0.7464386958250109</v>
-      </c>
-      <c r="AP2">
-        <v>0.6470276402386452</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>13.26753153972219</v>
-      </c>
-      <c r="AS2">
-        <v>52.14480510218672</v>
-      </c>
-      <c r="AT2">
-        <v>17.92321899260408</v>
-      </c>
-      <c r="AU2">
-        <v>13.27834727061607</v>
-      </c>
-      <c r="AV2">
         <v>1.992630758807295</v>
       </c>
     </row>
-    <row r="3" spans="1:48">
+    <row r="3" spans="1:32">
       <c r="A3" s="1">
         <v>574</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D3">
         <v>202001</v>
@@ -854,10 +710,10 @@
         <v>1849300014</v>
       </c>
       <c r="G3" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I3">
         <v>4831051000</v>
@@ -866,7 +722,7 @@
         <v>1559.090909090909</v>
       </c>
       <c r="K3" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L3">
         <v>24196824</v>
@@ -878,117 +734,69 @@
         <v>427335</v>
       </c>
       <c r="O3">
-        <v>68.36</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>31.64</v>
+        <v>0.43</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>27.85</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="S3">
-        <v>12.33</v>
+        <v>1.7</v>
       </c>
       <c r="T3">
-        <v>10.91</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>41.48</v>
+        <v>0</v>
       </c>
       <c r="V3">
+        <v>19.69</v>
+      </c>
+      <c r="W3">
+        <v>14.27</v>
+      </c>
+      <c r="X3">
+        <v>35.8</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>21.53</v>
+      </c>
+      <c r="AC3">
+        <v>42.8</v>
+      </c>
+      <c r="AD3">
+        <v>14.27</v>
+      </c>
+      <c r="AE3">
+        <v>17.74</v>
+      </c>
+      <c r="AF3">
         <v>3.65</v>
       </c>
-      <c r="W3">
-        <v>31.64</v>
-      </c>
-      <c r="X3">
-        <v>31.38</v>
-      </c>
-      <c r="Y3">
-        <v>47.09</v>
-      </c>
-      <c r="Z3">
-        <v>21.53</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0.43</v>
-      </c>
-      <c r="AG3">
-        <v>27.85</v>
-      </c>
-      <c r="AH3">
-        <v>0.26</v>
-      </c>
-      <c r="AI3">
-        <v>1.7</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-      <c r="AK3">
-        <v>0</v>
-      </c>
-      <c r="AL3">
-        <v>19.69</v>
-      </c>
-      <c r="AM3">
-        <v>14.27</v>
-      </c>
-      <c r="AN3">
-        <v>35.8</v>
-      </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AR3">
-        <v>21.53</v>
-      </c>
-      <c r="AS3">
-        <v>42.8</v>
-      </c>
-      <c r="AT3">
-        <v>14.27</v>
-      </c>
-      <c r="AU3">
-        <v>17.74</v>
-      </c>
-      <c r="AV3">
-        <v>3.65</v>
-      </c>
     </row>
-    <row r="4" spans="1:48">
+    <row r="4" spans="1:32">
       <c r="A4" s="1">
         <v>2791</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D4">
         <v>202002</v>
@@ -1000,10 +808,10 @@
         <v>6128201787</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H4" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I4">
         <v>4831051000</v>
@@ -1012,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L4">
         <v>298737289</v>
@@ -1024,117 +832,69 @@
         <v>48877.1742473822</v>
       </c>
       <c r="O4">
-        <v>83.77269558434671</v>
+        <v>1.014528002361299</v>
       </c>
       <c r="P4">
-        <v>16.22730441565332</v>
+        <v>10.52927059286529</v>
       </c>
       <c r="Q4">
-        <v>2.380063991341904</v>
+        <v>13.59957178646687</v>
       </c>
       <c r="R4">
-        <v>12.78774682450171</v>
+        <v>8.892693658842168</v>
       </c>
       <c r="S4">
-        <v>20.46683578764752</v>
+        <v>7.915343052202633</v>
       </c>
       <c r="T4">
-        <v>12.90268235178368</v>
+        <v>2.738143042363888</v>
       </c>
       <c r="U4">
-        <v>21.46453930941979</v>
+        <v>15.83381928383905</v>
       </c>
       <c r="V4">
-        <v>16.14089131099399</v>
+        <v>18.7141101331344</v>
       </c>
       <c r="W4">
-        <v>13.84724042431141</v>
+        <v>7.17273503606709</v>
       </c>
       <c r="X4">
-        <v>59.40715117656438</v>
+        <v>13.58973176482163</v>
       </c>
       <c r="Y4">
-        <v>28.18420708289952</v>
+        <v>0.1491952944648968</v>
       </c>
       <c r="Z4">
-        <v>8.647454049701842</v>
+        <v>0.626620236752567</v>
       </c>
       <c r="AA4">
-        <v>0.7269175793451081</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.5266625767297499</v>
+        <v>17.8922861339215</v>
       </c>
       <c r="AC4">
-        <v>1.652167532791663</v>
+        <v>45.06724234981593</v>
       </c>
       <c r="AD4">
-        <v>0.865332707896402</v>
+        <v>16.22876611817951</v>
       </c>
       <c r="AE4">
-        <v>1.014528002361299</v>
+        <v>15.35713409299232</v>
       </c>
       <c r="AF4">
-        <v>10.52927059286529</v>
-      </c>
-      <c r="AG4">
-        <v>13.59957178646687</v>
-      </c>
-      <c r="AH4">
-        <v>8.892693658842168</v>
-      </c>
-      <c r="AI4">
-        <v>7.915343052202633</v>
-      </c>
-      <c r="AJ4">
-        <v>2.738143042363888</v>
-      </c>
-      <c r="AK4">
-        <v>15.83381928383905</v>
-      </c>
-      <c r="AL4">
-        <v>18.7141101331344</v>
-      </c>
-      <c r="AM4">
-        <v>7.17273503606709</v>
-      </c>
-      <c r="AN4">
-        <v>13.58973176482163</v>
-      </c>
-      <c r="AO4">
-        <v>0.1491952944648968</v>
-      </c>
-      <c r="AP4">
-        <v>0.626620236752567</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>17.8922861339215</v>
-      </c>
-      <c r="AS4">
-        <v>45.06724234981593</v>
-      </c>
-      <c r="AT4">
-        <v>16.22876611817951</v>
-      </c>
-      <c r="AU4">
-        <v>15.35713409299232</v>
-      </c>
-      <c r="AV4">
         <v>4.678755773873278</v>
       </c>
     </row>
-    <row r="5" spans="1:48">
+    <row r="5" spans="1:32">
       <c r="A5" s="1">
         <v>3351</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D5">
         <v>202002</v>
@@ -1146,10 +906,10 @@
         <v>1849300014</v>
       </c>
       <c r="G5" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H5" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I5">
         <v>4831051000</v>
@@ -1158,7 +918,7 @@
         <v>1559.090909090909</v>
       </c>
       <c r="K5" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L5">
         <v>23719050</v>
@@ -1170,117 +930,69 @@
         <v>516943</v>
       </c>
       <c r="O5">
-        <v>71.08</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>28.92</v>
+        <v>14.41</v>
       </c>
       <c r="Q5">
-        <v>14.35</v>
+        <v>10.86</v>
       </c>
       <c r="R5">
-        <v>17.1</v>
+        <v>14.08</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="T5">
-        <v>12.92</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>26.99</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>14.08</v>
+        <v>28.31</v>
       </c>
       <c r="W5">
         <v>14.56</v>
       </c>
       <c r="X5">
-        <v>25.43</v>
+        <v>16.05</v>
       </c>
       <c r="Y5">
-        <v>32.9</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>41.67</v>
+        <v>0</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>25.27</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>30.13</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>14.56</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>18.82</v>
       </c>
       <c r="AF5">
-        <v>14.41</v>
-      </c>
-      <c r="AG5">
-        <v>10.86</v>
-      </c>
-      <c r="AH5">
-        <v>14.08</v>
-      </c>
-      <c r="AI5">
-        <v>1.72</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-      <c r="AK5">
-        <v>0</v>
-      </c>
-      <c r="AL5">
-        <v>28.31</v>
-      </c>
-      <c r="AM5">
-        <v>14.56</v>
-      </c>
-      <c r="AN5">
-        <v>16.05</v>
-      </c>
-      <c r="AO5">
-        <v>0</v>
-      </c>
-      <c r="AP5">
-        <v>0</v>
-      </c>
-      <c r="AQ5">
-        <v>0</v>
-      </c>
-      <c r="AR5">
-        <v>25.27</v>
-      </c>
-      <c r="AS5">
-        <v>30.13</v>
-      </c>
-      <c r="AT5">
-        <v>14.56</v>
-      </c>
-      <c r="AU5">
-        <v>18.82</v>
-      </c>
-      <c r="AV5">
         <v>11.22</v>
       </c>
     </row>
-    <row r="6" spans="1:48">
+    <row r="6" spans="1:32">
       <c r="A6" s="1">
         <v>5565</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D6">
         <v>202003</v>
@@ -1292,10 +1004,10 @@
         <v>6128201787</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I6">
         <v>4831051000</v>
@@ -1304,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L6">
         <v>275350804</v>
@@ -1316,117 +1028,69 @@
         <v>60945.28640991589</v>
       </c>
       <c r="O6">
-        <v>89.43406983155204</v>
+        <v>0.9475113039800676</v>
       </c>
       <c r="P6">
-        <v>10.56593016844796</v>
+        <v>6.127923275103276</v>
       </c>
       <c r="Q6">
-        <v>2.795003588840075</v>
+        <v>20.559035382152</v>
       </c>
       <c r="R6">
-        <v>30.54115014528884</v>
+        <v>6.586515825572095</v>
       </c>
       <c r="S6">
-        <v>18.20223139177759</v>
+        <v>7.250238285122276</v>
       </c>
       <c r="T6">
-        <v>12.45357460626844</v>
+        <v>1.935822867326728</v>
       </c>
       <c r="U6">
-        <v>9.833196009625597</v>
+        <v>18.4119694237755</v>
       </c>
       <c r="V6">
-        <v>18.40391767859157</v>
+        <v>18.205096534601</v>
       </c>
       <c r="W6">
-        <v>7.76095277640809</v>
+        <v>10.64830438566651</v>
       </c>
       <c r="X6">
-        <v>54.85756333349947</v>
+        <v>9.347530323100127</v>
       </c>
       <c r="Y6">
-        <v>30.54710651053701</v>
+        <v>0.4188997343911877</v>
       </c>
       <c r="Z6">
-        <v>11.31127431569076</v>
+        <v>0.6283496015867817</v>
       </c>
       <c r="AA6">
-        <v>0.4785021186282791</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.8407144912858143</v>
+        <v>14.6334436222674</v>
       </c>
       <c r="AC6">
-        <v>0.9375375007802772</v>
+        <v>34.39597287044784</v>
       </c>
       <c r="AD6">
-        <v>1.027301729578389</v>
+        <v>36.56162420161301</v>
       </c>
       <c r="AE6">
-        <v>0.9475113039800676</v>
+        <v>8.932188689777712</v>
       </c>
       <c r="AF6">
-        <v>6.127923275103276</v>
-      </c>
-      <c r="AG6">
-        <v>20.559035382152</v>
-      </c>
-      <c r="AH6">
-        <v>6.586515825572095</v>
-      </c>
-      <c r="AI6">
-        <v>7.250238285122276</v>
-      </c>
-      <c r="AJ6">
-        <v>1.935822867326728</v>
-      </c>
-      <c r="AK6">
-        <v>18.4119694237755</v>
-      </c>
-      <c r="AL6">
-        <v>18.205096534601</v>
-      </c>
-      <c r="AM6">
-        <v>10.64830438566651</v>
-      </c>
-      <c r="AN6">
-        <v>9.347530323100127</v>
-      </c>
-      <c r="AO6">
-        <v>0.4188997343911877</v>
-      </c>
-      <c r="AP6">
-        <v>0.6283496015867817</v>
-      </c>
-      <c r="AQ6">
-        <v>0</v>
-      </c>
-      <c r="AR6">
-        <v>14.6334436222674</v>
-      </c>
-      <c r="AS6">
-        <v>34.39597287044784</v>
-      </c>
-      <c r="AT6">
-        <v>36.56162420161301</v>
-      </c>
-      <c r="AU6">
-        <v>8.932188689777712</v>
-      </c>
-      <c r="AV6">
         <v>4.419547476716283</v>
       </c>
     </row>
-    <row r="7" spans="1:48">
+    <row r="7" spans="1:32">
       <c r="A7" s="1">
         <v>6122</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D7">
         <v>202003</v>
@@ -1438,10 +1102,10 @@
         <v>1849300014</v>
       </c>
       <c r="G7" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H7" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I7">
         <v>4831051000</v>
@@ -1450,7 +1114,7 @@
         <v>1559.090909090909</v>
       </c>
       <c r="K7" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L7">
         <v>36360870</v>
@@ -1462,117 +1126,69 @@
         <v>519202</v>
       </c>
       <c r="O7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>32.58</v>
       </c>
       <c r="R7">
-        <v>50.46</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="S7">
-        <v>8.859999999999999</v>
+        <v>2.2</v>
       </c>
       <c r="T7">
-        <v>9.52</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>22.62</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>8.539999999999999</v>
+        <v>10.11</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>18.19</v>
       </c>
       <c r="X7">
-        <v>13.43</v>
+        <v>20</v>
       </c>
       <c r="Y7">
-        <v>43.84</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>36.07</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>6.65</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>15.37</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>50.34</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>3.79</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>12.31</v>
       </c>
       <c r="AF7">
-        <v>8.279999999999999</v>
-      </c>
-      <c r="AG7">
-        <v>32.58</v>
-      </c>
-      <c r="AH7">
-        <v>8.630000000000001</v>
-      </c>
-      <c r="AI7">
-        <v>2.2</v>
-      </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
-      <c r="AK7">
-        <v>0</v>
-      </c>
-      <c r="AL7">
-        <v>10.11</v>
-      </c>
-      <c r="AM7">
         <v>18.19</v>
       </c>
-      <c r="AN7">
-        <v>20</v>
-      </c>
-      <c r="AO7">
-        <v>0</v>
-      </c>
-      <c r="AP7">
-        <v>0</v>
-      </c>
-      <c r="AQ7">
-        <v>0</v>
-      </c>
-      <c r="AR7">
-        <v>15.37</v>
-      </c>
-      <c r="AS7">
-        <v>50.34</v>
-      </c>
-      <c r="AT7">
-        <v>3.79</v>
-      </c>
-      <c r="AU7">
-        <v>12.31</v>
-      </c>
-      <c r="AV7">
-        <v>18.19</v>
-      </c>
     </row>
-    <row r="8" spans="1:48">
+    <row r="8" spans="1:32">
       <c r="A8" s="1">
         <v>8326</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D8">
         <v>202004</v>
@@ -1584,10 +1200,10 @@
         <v>6128201787</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I8">
         <v>4831051000</v>
@@ -1596,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L8">
         <v>318187410</v>
@@ -1608,117 +1224,69 @@
         <v>62218.89127884239</v>
       </c>
       <c r="O8">
-        <v>87.11218481476057</v>
+        <v>4.159070932284845</v>
       </c>
       <c r="P8">
-        <v>12.88781518523941</v>
+        <v>4.073180716515465</v>
       </c>
       <c r="Q8">
-        <v>4.977189235991456</v>
+        <v>16.67259871624085</v>
       </c>
       <c r="R8">
-        <v>17.09594753155067</v>
+        <v>5.229589271272549</v>
       </c>
       <c r="S8">
-        <v>19.45984209526078</v>
+        <v>11.19478987650706</v>
       </c>
       <c r="T8">
-        <v>29.55721981815685</v>
+        <v>2.454055641202145</v>
       </c>
       <c r="U8">
-        <v>10.36028273035693</v>
+        <v>11.33152443479772</v>
       </c>
       <c r="V8">
-        <v>14.10074058081054</v>
+        <v>23.51644230967529</v>
       </c>
       <c r="W8">
-        <v>4.448801568735859</v>
+        <v>10.45359144524292</v>
       </c>
       <c r="X8">
-        <v>53.27454157686503</v>
+        <v>10.91518021712424</v>
       </c>
       <c r="Y8">
-        <v>27.59624045596273</v>
+        <v>1.202793548651092</v>
       </c>
       <c r="Z8">
-        <v>12.75935366264178</v>
+        <v>0.4988219568461241</v>
       </c>
       <c r="AA8">
-        <v>3.632836821827739</v>
+        <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.6540690080100907</v>
+        <v>18.77818264079022</v>
       </c>
       <c r="AC8">
-        <v>0.5865161650173398</v>
+        <v>46.39601821413989</v>
       </c>
       <c r="AD8">
-        <v>1.516418748812217</v>
+        <v>22.21729050074608</v>
       </c>
       <c r="AE8">
-        <v>4.159070932284845</v>
+        <v>8.679696881532806</v>
       </c>
       <c r="AF8">
-        <v>4.073180716515465</v>
-      </c>
-      <c r="AG8">
-        <v>16.67259871624085</v>
-      </c>
-      <c r="AH8">
-        <v>5.229589271272549</v>
-      </c>
-      <c r="AI8">
-        <v>11.19478987650706</v>
-      </c>
-      <c r="AJ8">
-        <v>2.454055641202145</v>
-      </c>
-      <c r="AK8">
-        <v>11.33152443479772</v>
-      </c>
-      <c r="AL8">
-        <v>23.51644230967529</v>
-      </c>
-      <c r="AM8">
-        <v>10.45359144524292</v>
-      </c>
-      <c r="AN8">
-        <v>10.91518021712424</v>
-      </c>
-      <c r="AO8">
-        <v>1.202793548651092</v>
-      </c>
-      <c r="AP8">
-        <v>0.4988219568461241</v>
-      </c>
-      <c r="AQ8">
-        <v>0</v>
-      </c>
-      <c r="AR8">
-        <v>18.77818264079022</v>
-      </c>
-      <c r="AS8">
-        <v>46.39601821413989</v>
-      </c>
-      <c r="AT8">
-        <v>22.21729050074608</v>
-      </c>
-      <c r="AU8">
-        <v>8.679696881532806</v>
-      </c>
-      <c r="AV8">
         <v>2.227172696430698</v>
       </c>
     </row>
-    <row r="9" spans="1:48">
+    <row r="9" spans="1:32">
       <c r="A9" s="1">
         <v>8885</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D9">
         <v>202004</v>
@@ -1730,10 +1298,10 @@
         <v>1849300014</v>
       </c>
       <c r="G9" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I9">
         <v>4831051000</v>
@@ -1742,7 +1310,7 @@
         <v>1559.090909090909</v>
       </c>
       <c r="K9" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L9">
         <v>24950198</v>
@@ -1754,117 +1322,69 @@
         <v>447419</v>
       </c>
       <c r="O9">
-        <v>86.48</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>13.52</v>
+        <v>13.86</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="R9">
-        <v>31.7</v>
+        <v>13.39</v>
       </c>
       <c r="S9">
-        <v>0.65</v>
+        <v>1.63</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>13.85</v>
       </c>
       <c r="U9">
-        <v>13.85</v>
+        <v>0</v>
       </c>
       <c r="V9">
-        <v>40.29</v>
+        <v>27.17</v>
       </c>
       <c r="W9">
-        <v>13.52</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>7.05</v>
+        <v>20.57</v>
       </c>
       <c r="Y9">
-        <v>83.41</v>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>9.539999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA9">
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>13.86</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>52.56</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>5.44</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>17.84</v>
       </c>
       <c r="AF9">
-        <v>13.86</v>
-      </c>
-      <c r="AG9">
-        <v>9.539999999999999</v>
-      </c>
-      <c r="AH9">
-        <v>13.39</v>
-      </c>
-      <c r="AI9">
-        <v>1.63</v>
-      </c>
-      <c r="AJ9">
-        <v>13.85</v>
-      </c>
-      <c r="AK9">
-        <v>0</v>
-      </c>
-      <c r="AL9">
-        <v>27.17</v>
-      </c>
-      <c r="AM9">
-        <v>0</v>
-      </c>
-      <c r="AN9">
-        <v>20.57</v>
-      </c>
-      <c r="AO9">
-        <v>0</v>
-      </c>
-      <c r="AP9">
-        <v>0</v>
-      </c>
-      <c r="AQ9">
-        <v>0</v>
-      </c>
-      <c r="AR9">
-        <v>13.86</v>
-      </c>
-      <c r="AS9">
-        <v>52.56</v>
-      </c>
-      <c r="AT9">
-        <v>5.44</v>
-      </c>
-      <c r="AU9">
-        <v>17.84</v>
-      </c>
-      <c r="AV9">
         <v>10.31</v>
       </c>
     </row>
-    <row r="10" spans="1:48">
+    <row r="10" spans="1:32">
       <c r="A10" s="1">
         <v>11100</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D10">
         <v>202005</v>
@@ -1876,10 +1396,10 @@
         <v>6128201787</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H10" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I10">
         <v>4831051000</v>
@@ -1888,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L10">
         <v>329563354</v>
@@ -1900,117 +1420,69 @@
         <v>56067.25995236475</v>
       </c>
       <c r="O10">
-        <v>83.9533125507334</v>
+        <v>1.34684014788853</v>
       </c>
       <c r="P10">
-        <v>16.04668744926658</v>
+        <v>5.673091159674263</v>
       </c>
       <c r="Q10">
-        <v>1.37086959365027</v>
+        <v>11.15597864852413</v>
       </c>
       <c r="R10">
-        <v>25.97626632553326</v>
+        <v>10.48332873930516</v>
       </c>
       <c r="S10">
-        <v>12.0318361007456</v>
+        <v>5.379331670686907</v>
       </c>
       <c r="T10">
-        <v>15.56399466213103</v>
+        <v>2.857664457135</v>
       </c>
       <c r="U10">
-        <v>15.76559077675851</v>
+        <v>15.69045175122838</v>
       </c>
       <c r="V10">
-        <v>15.53926538473692</v>
+        <v>19.58331342555762</v>
       </c>
       <c r="W10">
-        <v>13.74224584888161</v>
+        <v>14.44798691777485</v>
       </c>
       <c r="X10">
-        <v>43.65830040930461</v>
+        <v>13.38208177466236</v>
       </c>
       <c r="Y10">
-        <v>39.27707772751943</v>
+        <v>2.383513815070592</v>
       </c>
       <c r="Z10">
-        <v>12.31830128412882</v>
+        <v>1.823542910902649</v>
       </c>
       <c r="AA10">
-        <v>1.807131106209096</v>
+        <v>0</v>
       </c>
       <c r="AB10">
-        <v>1.059564437343358</v>
+        <v>13.41810811407752</v>
       </c>
       <c r="AC10">
-        <v>1.154570890973515</v>
+        <v>45.99048084706045</v>
       </c>
       <c r="AD10">
-        <v>0.7249854520839718</v>
+        <v>23.55123405738249</v>
       </c>
       <c r="AE10">
-        <v>1.34684014788853</v>
+        <v>8.697997418547937</v>
       </c>
       <c r="AF10">
-        <v>5.673091159674263</v>
-      </c>
-      <c r="AG10">
-        <v>11.15597864852413</v>
-      </c>
-      <c r="AH10">
-        <v>10.48332873930516</v>
-      </c>
-      <c r="AI10">
-        <v>5.379331670686907</v>
-      </c>
-      <c r="AJ10">
-        <v>2.857664457135</v>
-      </c>
-      <c r="AK10">
-        <v>15.69045175122838</v>
-      </c>
-      <c r="AL10">
-        <v>19.58331342555762</v>
-      </c>
-      <c r="AM10">
-        <v>14.44798691777485</v>
-      </c>
-      <c r="AN10">
-        <v>13.38208177466236</v>
-      </c>
-      <c r="AO10">
-        <v>2.383513815070592</v>
-      </c>
-      <c r="AP10">
-        <v>1.823542910902649</v>
-      </c>
-      <c r="AQ10">
-        <v>0</v>
-      </c>
-      <c r="AR10">
-        <v>13.41810811407752</v>
-      </c>
-      <c r="AS10">
-        <v>45.99048084706045</v>
-      </c>
-      <c r="AT10">
-        <v>23.55123405738249</v>
-      </c>
-      <c r="AU10">
-        <v>8.697997418547937</v>
-      </c>
-      <c r="AV10">
         <v>4.115260221832795</v>
       </c>
     </row>
-    <row r="11" spans="1:48">
+    <row r="11" spans="1:32">
       <c r="A11" s="1">
         <v>11657</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D11">
         <v>202005</v>
@@ -2022,10 +1494,10 @@
         <v>1849300014</v>
       </c>
       <c r="G11" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H11" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I11">
         <v>4831051000</v>
@@ -2034,7 +1506,7 @@
         <v>1559.090909090909</v>
       </c>
       <c r="K11" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L11">
         <v>14544060</v>
@@ -2046,40 +1518,40 @@
         <v>399624</v>
       </c>
       <c r="O11">
-        <v>76.79000000000001</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>23.21</v>
+        <v>23.63</v>
       </c>
       <c r="Q11">
-        <v>23.21</v>
+        <v>0</v>
       </c>
       <c r="R11">
+        <v>22.99</v>
+      </c>
+      <c r="S11">
         <v>2.86</v>
       </c>
-      <c r="S11">
-        <v>30.59</v>
-      </c>
       <c r="T11">
-        <v>43.34</v>
+        <v>0</v>
       </c>
       <c r="U11">
         <v>0</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>17.55</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>23.21</v>
+        <v>32.98</v>
       </c>
       <c r="Y11">
-        <v>53.17</v>
+        <v>0</v>
       </c>
       <c r="Z11">
-        <v>23.63</v>
+        <v>0</v>
       </c>
       <c r="AA11">
         <v>0</v>
@@ -2088,75 +1560,27 @@
         <v>0</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>72.63</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>6.97</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>2.86</v>
       </c>
       <c r="AF11">
-        <v>23.63</v>
-      </c>
-      <c r="AG11">
-        <v>0</v>
-      </c>
-      <c r="AH11">
-        <v>22.99</v>
-      </c>
-      <c r="AI11">
-        <v>2.86</v>
-      </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
-      <c r="AK11">
-        <v>0</v>
-      </c>
-      <c r="AL11">
         <v>17.55</v>
       </c>
-      <c r="AM11">
-        <v>0</v>
-      </c>
-      <c r="AN11">
-        <v>32.98</v>
-      </c>
-      <c r="AO11">
-        <v>0</v>
-      </c>
-      <c r="AP11">
-        <v>0</v>
-      </c>
-      <c r="AQ11">
-        <v>0</v>
-      </c>
-      <c r="AR11">
-        <v>0</v>
-      </c>
-      <c r="AS11">
-        <v>72.63</v>
-      </c>
-      <c r="AT11">
-        <v>6.97</v>
-      </c>
-      <c r="AU11">
-        <v>2.86</v>
-      </c>
-      <c r="AV11">
-        <v>17.55</v>
-      </c>
     </row>
-    <row r="12" spans="1:48">
+    <row r="12" spans="1:32">
       <c r="A12" s="1">
         <v>13873</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D12">
         <v>202006</v>
@@ -2168,10 +1592,10 @@
         <v>6128201787</v>
       </c>
       <c r="G12" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H12" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I12">
         <v>4831051000</v>
@@ -2180,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L12">
         <v>372967546</v>
@@ -2192,117 +1616,69 @@
         <v>53920.42012433136</v>
       </c>
       <c r="O12">
-        <v>89.24632925385953</v>
+        <v>1.331314154610117</v>
       </c>
       <c r="P12">
-        <v>10.75367074614047</v>
+        <v>6.077702008849854</v>
       </c>
       <c r="Q12">
-        <v>1.191408274541935</v>
+        <v>6.628238326559384</v>
       </c>
       <c r="R12">
-        <v>25.86928166178835</v>
+        <v>12.9153569577338</v>
       </c>
       <c r="S12">
-        <v>21.49074231734897</v>
+        <v>6.860906578075294</v>
       </c>
       <c r="T12">
-        <v>13.44092523615983</v>
+        <v>4.085008879887903</v>
       </c>
       <c r="U12">
-        <v>13.38058959703695</v>
+        <v>13.70284052822119</v>
       </c>
       <c r="V12">
-        <v>15.07466080204201</v>
+        <v>22.26058959703695</v>
       </c>
       <c r="W12">
-        <v>9.562262471598535</v>
+        <v>17.26434292269494</v>
       </c>
       <c r="X12">
-        <v>50.40254752632016</v>
+        <v>8.863829685814004</v>
       </c>
       <c r="Y12">
-        <v>33.52847362638893</v>
+        <v>0.8146847811793253</v>
       </c>
       <c r="Z12">
-        <v>12.08592167732471</v>
+        <v>0.9452681588547655</v>
       </c>
       <c r="AA12">
-        <v>0.9068762136746342</v>
+        <v>0</v>
       </c>
       <c r="AB12">
-        <v>0.6509127974368042</v>
+        <v>13.90320014648138</v>
       </c>
       <c r="AC12">
-        <v>1.461555673801173</v>
+        <v>39.70081155983475</v>
       </c>
       <c r="AD12">
-        <v>0.9537773047953079</v>
+        <v>20.63318860606708</v>
       </c>
       <c r="AE12">
-        <v>1.331314154610117</v>
+        <v>16.2957458761841</v>
       </c>
       <c r="AF12">
-        <v>6.077702008849854</v>
-      </c>
-      <c r="AG12">
-        <v>6.628238326559384</v>
-      </c>
-      <c r="AH12">
-        <v>12.9153569577338</v>
-      </c>
-      <c r="AI12">
-        <v>6.860906578075294</v>
-      </c>
-      <c r="AJ12">
-        <v>4.085008879887903</v>
-      </c>
-      <c r="AK12">
-        <v>13.70284052822119</v>
-      </c>
-      <c r="AL12">
-        <v>22.26058959703695</v>
-      </c>
-      <c r="AM12">
-        <v>17.26434292269494</v>
-      </c>
-      <c r="AN12">
-        <v>8.863829685814004</v>
-      </c>
-      <c r="AO12">
-        <v>0.8146847811793253</v>
-      </c>
-      <c r="AP12">
-        <v>0.9452681588547655</v>
-      </c>
-      <c r="AQ12">
-        <v>0</v>
-      </c>
-      <c r="AR12">
-        <v>13.90320014648138</v>
-      </c>
-      <c r="AS12">
-        <v>39.70081155983475</v>
-      </c>
-      <c r="AT12">
-        <v>20.63318860606708</v>
-      </c>
-      <c r="AU12">
-        <v>16.2957458761841</v>
-      </c>
-      <c r="AV12">
         <v>7.697165691140323</v>
       </c>
     </row>
-    <row r="13" spans="1:48">
+    <row r="13" spans="1:32">
       <c r="A13" s="1">
         <v>14426</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D13">
         <v>202006</v>
@@ -2314,10 +1690,10 @@
         <v>1849300014</v>
       </c>
       <c r="G13" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H13" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I13">
         <v>4831051000</v>
@@ -2326,7 +1702,7 @@
         <v>1559.090909090909</v>
       </c>
       <c r="K13" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L13">
         <v>26736078</v>
@@ -2338,117 +1714,69 @@
         <v>394529</v>
       </c>
       <c r="O13">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>13.35</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>36.97</v>
       </c>
       <c r="R13">
-        <v>13.35</v>
+        <v>17.55</v>
       </c>
       <c r="S13">
-        <v>14.51</v>
+        <v>3.12</v>
       </c>
       <c r="T13">
-        <v>44.99</v>
+        <v>0</v>
       </c>
       <c r="U13">
-        <v>25.61</v>
+        <v>0</v>
       </c>
       <c r="V13">
-        <v>1.54</v>
+        <v>10.97</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
-        <v>17.68</v>
+        <v>18.04</v>
       </c>
       <c r="Y13">
-        <v>50.18</v>
+        <v>0</v>
       </c>
       <c r="Z13">
-        <v>32.15</v>
+        <v>0</v>
       </c>
       <c r="AA13">
         <v>0</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>9.91</v>
       </c>
       <c r="AC13">
-        <v>0</v>
+        <v>66.73</v>
       </c>
       <c r="AD13">
-        <v>0</v>
+        <v>3.42</v>
       </c>
       <c r="AE13">
-        <v>0</v>
+        <v>3.12</v>
       </c>
       <c r="AF13">
-        <v>13.35</v>
-      </c>
-      <c r="AG13">
-        <v>36.97</v>
-      </c>
-      <c r="AH13">
-        <v>17.55</v>
-      </c>
-      <c r="AI13">
-        <v>3.12</v>
-      </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
-      <c r="AK13">
-        <v>0</v>
-      </c>
-      <c r="AL13">
-        <v>10.97</v>
-      </c>
-      <c r="AM13">
-        <v>0</v>
-      </c>
-      <c r="AN13">
-        <v>18.04</v>
-      </c>
-      <c r="AO13">
-        <v>0</v>
-      </c>
-      <c r="AP13">
-        <v>0</v>
-      </c>
-      <c r="AQ13">
-        <v>0</v>
-      </c>
-      <c r="AR13">
-        <v>9.91</v>
-      </c>
-      <c r="AS13">
-        <v>66.73</v>
-      </c>
-      <c r="AT13">
-        <v>3.42</v>
-      </c>
-      <c r="AU13">
-        <v>3.12</v>
-      </c>
-      <c r="AV13">
         <v>16.82</v>
       </c>
     </row>
-    <row r="14" spans="1:48">
+    <row r="14" spans="1:32">
       <c r="A14" s="1">
         <v>16651</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D14">
         <v>202007</v>
@@ -2460,10 +1788,10 @@
         <v>6128201787</v>
       </c>
       <c r="G14" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H14" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I14">
         <v>4831051000</v>
@@ -2472,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L14">
         <v>325900724</v>
@@ -2484,117 +1812,69 @@
         <v>49334.04844081138</v>
       </c>
       <c r="O14">
-        <v>88.79032306335102</v>
+        <v>0.6175206852256027</v>
       </c>
       <c r="P14">
-        <v>11.20967693664896</v>
+        <v>10.54684753244058</v>
       </c>
       <c r="Q14">
-        <v>1.8779810958628</v>
+        <v>9.824756004530999</v>
       </c>
       <c r="R14">
-        <v>18.36816625770982</v>
+        <v>10.3512258672368</v>
       </c>
       <c r="S14">
-        <v>22.6405076709802</v>
+        <v>7.118166257709818</v>
       </c>
       <c r="T14">
-        <v>16.28365002140959</v>
+        <v>2.164820173826923</v>
       </c>
       <c r="U14">
-        <v>10.96185231389667</v>
+        <v>9.41929926691418</v>
       </c>
       <c r="V14">
-        <v>20.53629426377095</v>
+        <v>15.49014746441619</v>
       </c>
       <c r="W14">
-        <v>9.33162210857807</v>
+        <v>20.8977233102434</v>
       </c>
       <c r="X14">
-        <v>39.08911576772073</v>
+        <v>13.56956716966361</v>
       </c>
       <c r="Y14">
-        <v>38.48331850358209</v>
+        <v>0.6492626779190586</v>
       </c>
       <c r="Z14">
-        <v>18.94111554603358</v>
+        <v>0.5991152135028703</v>
       </c>
       <c r="AA14">
-        <v>0.8361833883498828</v>
+        <v>0</v>
       </c>
       <c r="AB14">
-        <v>1.026976425250286</v>
+        <v>22.79783473988232</v>
       </c>
       <c r="AC14">
-        <v>1.067493104924799</v>
+        <v>41.64092137549225</v>
       </c>
       <c r="AD14">
-        <v>0.555870996346728</v>
+        <v>18.63036866104047</v>
       </c>
       <c r="AE14">
-        <v>0.6175206852256027</v>
+        <v>10.0491056505907</v>
       </c>
       <c r="AF14">
-        <v>10.54684753244058</v>
-      </c>
-      <c r="AG14">
-        <v>9.824756004530999</v>
-      </c>
-      <c r="AH14">
-        <v>10.3512258672368</v>
-      </c>
-      <c r="AI14">
-        <v>7.118166257709818</v>
-      </c>
-      <c r="AJ14">
-        <v>2.164820173826923</v>
-      </c>
-      <c r="AK14">
-        <v>9.41929926691418</v>
-      </c>
-      <c r="AL14">
-        <v>15.49014746441619</v>
-      </c>
-      <c r="AM14">
-        <v>20.8977233102434</v>
-      </c>
-      <c r="AN14">
-        <v>13.56956716966361</v>
-      </c>
-      <c r="AO14">
-        <v>0.6492626779190586</v>
-      </c>
-      <c r="AP14">
-        <v>0.5991152135028703</v>
-      </c>
-      <c r="AQ14">
-        <v>0</v>
-      </c>
-      <c r="AR14">
-        <v>22.79783473988232</v>
-      </c>
-      <c r="AS14">
-        <v>41.64092137549225</v>
-      </c>
-      <c r="AT14">
-        <v>18.63036866104047</v>
-      </c>
-      <c r="AU14">
-        <v>10.0491056505907</v>
-      </c>
-      <c r="AV14">
         <v>5.633391681572331</v>
       </c>
     </row>
-    <row r="15" spans="1:48">
+    <row r="15" spans="1:32">
       <c r="A15" s="1">
         <v>17205</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D15">
         <v>202007</v>
@@ -2606,10 +1886,10 @@
         <v>1849300014</v>
       </c>
       <c r="G15" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H15" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I15">
         <v>4831051000</v>
@@ -2618,7 +1898,7 @@
         <v>1559.090909090909</v>
       </c>
       <c r="K15" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L15">
         <v>25094630</v>
@@ -2630,28 +1910,28 @@
         <v>483376</v>
       </c>
       <c r="O15">
-        <v>67.44</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>32.56</v>
+        <v>13.76</v>
       </c>
       <c r="Q15">
-        <v>32.56</v>
+        <v>24.97</v>
       </c>
       <c r="R15">
-        <v>13.76</v>
+        <v>13.17</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="T15">
-        <v>20.8</v>
+        <v>13.85</v>
       </c>
       <c r="U15">
         <v>0</v>
       </c>
       <c r="V15">
-        <v>32.89</v>
+        <v>15.99</v>
       </c>
       <c r="W15">
         <v>0</v>
@@ -2660,10 +1940,10 @@
         <v>16.61</v>
       </c>
       <c r="Y15">
-        <v>58.42</v>
+        <v>0</v>
       </c>
       <c r="Z15">
-        <v>24.97</v>
+        <v>0</v>
       </c>
       <c r="AA15">
         <v>0</v>
@@ -2672,75 +1952,27 @@
         <v>0</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>54.21</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>22.31</v>
       </c>
       <c r="AE15">
-        <v>0</v>
+        <v>17.62</v>
       </c>
       <c r="AF15">
-        <v>13.76</v>
-      </c>
-      <c r="AG15">
-        <v>24.97</v>
-      </c>
-      <c r="AH15">
-        <v>13.17</v>
-      </c>
-      <c r="AI15">
-        <v>1.66</v>
-      </c>
-      <c r="AJ15">
-        <v>13.85</v>
-      </c>
-      <c r="AK15">
-        <v>0</v>
-      </c>
-      <c r="AL15">
-        <v>15.99</v>
-      </c>
-      <c r="AM15">
-        <v>0</v>
-      </c>
-      <c r="AN15">
-        <v>16.61</v>
-      </c>
-      <c r="AO15">
-        <v>0</v>
-      </c>
-      <c r="AP15">
-        <v>0</v>
-      </c>
-      <c r="AQ15">
-        <v>0</v>
-      </c>
-      <c r="AR15">
-        <v>0</v>
-      </c>
-      <c r="AS15">
-        <v>54.21</v>
-      </c>
-      <c r="AT15">
-        <v>22.31</v>
-      </c>
-      <c r="AU15">
-        <v>17.62</v>
-      </c>
-      <c r="AV15">
         <v>5.86</v>
       </c>
     </row>
-    <row r="16" spans="1:48">
+    <row r="16" spans="1:32">
       <c r="A16" s="1">
         <v>19431</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D16">
         <v>202008</v>
@@ -2752,10 +1984,10 @@
         <v>6128201787</v>
       </c>
       <c r="G16" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H16" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I16">
         <v>4831051000</v>
@@ -2764,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L16">
         <v>386063096</v>
@@ -2776,117 +2008,69 @@
         <v>55301.97622117175</v>
       </c>
       <c r="O16">
-        <v>79.46073844981029</v>
+        <v>2.578911341269459</v>
       </c>
       <c r="P16">
-        <v>20.53926155018971</v>
+        <v>8.216993415449375</v>
       </c>
       <c r="Q16">
-        <v>3.179062320528041</v>
+        <v>7.900574410354934</v>
       </c>
       <c r="R16">
-        <v>25.39951640692432</v>
+        <v>10.63309740182988</v>
       </c>
       <c r="S16">
-        <v>16.51853047704927</v>
+        <v>5.878631512761842</v>
       </c>
       <c r="T16">
-        <v>15.14966000951306</v>
+        <v>2.148351684254223</v>
       </c>
       <c r="U16">
-        <v>18.38222272610071</v>
+        <v>10.31078101668645</v>
       </c>
       <c r="V16">
-        <v>8.263104778499729</v>
+        <v>25.43973323168915</v>
       </c>
       <c r="W16">
-        <v>13.10796628512765</v>
+        <v>17.90839709289385</v>
       </c>
       <c r="X16">
-        <v>46.52705472604924</v>
+        <v>8.974591896553614</v>
       </c>
       <c r="Y16">
-        <v>38.96048643483914</v>
+        <v>0.3676688615168749</v>
       </c>
       <c r="Z16">
-        <v>8.97174366793142</v>
+        <v>0.421970711129561</v>
       </c>
       <c r="AA16">
-        <v>1.242255074543566</v>
+        <v>0</v>
       </c>
       <c r="AB16">
-        <v>1.157154613141267</v>
+        <v>17.53098308811158</v>
       </c>
       <c r="AC16">
-        <v>1.84955897380049</v>
+        <v>49.49085423886255</v>
       </c>
       <c r="AD16">
-        <v>1.291809513437669</v>
+        <v>14.26535531813691</v>
       </c>
       <c r="AE16">
-        <v>2.578911341269459</v>
+        <v>10.13005562707294</v>
       </c>
       <c r="AF16">
-        <v>8.216993415449375</v>
-      </c>
-      <c r="AG16">
-        <v>7.900574410354934</v>
-      </c>
-      <c r="AH16">
-        <v>10.63309740182988</v>
-      </c>
-      <c r="AI16">
-        <v>5.878631512761842</v>
-      </c>
-      <c r="AJ16">
-        <v>2.148351684254223</v>
-      </c>
-      <c r="AK16">
-        <v>10.31078101668645</v>
-      </c>
-      <c r="AL16">
-        <v>25.43973323168915</v>
-      </c>
-      <c r="AM16">
-        <v>17.90839709289385</v>
-      </c>
-      <c r="AN16">
-        <v>8.974591896553614</v>
-      </c>
-      <c r="AO16">
-        <v>0.3676688615168749</v>
-      </c>
-      <c r="AP16">
-        <v>0.421970711129561</v>
-      </c>
-      <c r="AQ16">
-        <v>0</v>
-      </c>
-      <c r="AR16">
-        <v>17.53098308811158</v>
-      </c>
-      <c r="AS16">
-        <v>49.49085423886255</v>
-      </c>
-      <c r="AT16">
-        <v>14.26535531813691</v>
-      </c>
-      <c r="AU16">
-        <v>10.13005562707294</v>
-      </c>
-      <c r="AV16">
         <v>7.783175158912367</v>
       </c>
     </row>
-    <row r="17" spans="1:48">
+    <row r="17" spans="1:32">
       <c r="A17" s="1">
         <v>19980</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D17">
         <v>202008</v>
@@ -2898,10 +2082,10 @@
         <v>1849300014</v>
       </c>
       <c r="G17" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H17" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I17">
         <v>4831051000</v>
@@ -2910,7 +2094,7 @@
         <v>1559.090909090909</v>
       </c>
       <c r="K17" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L17">
         <v>24908397</v>
@@ -2922,117 +2106,69 @@
         <v>604289</v>
       </c>
       <c r="O17">
-        <v>86.12</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>13.88</v>
+        <v>14.21</v>
       </c>
       <c r="Q17">
-        <v>13.88</v>
+        <v>29.48</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>13.61</v>
       </c>
       <c r="S17">
+        <v>14.44</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>28.25</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>10.79</v>
+      </c>
+      <c r="AC17">
+        <v>78.2</v>
+      </c>
+      <c r="AD17">
         <v>3.58</v>
       </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <v>46.88</v>
-      </c>
-      <c r="V17">
-        <v>35.66</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17">
-        <v>11.02</v>
-      </c>
-      <c r="Y17">
-        <v>47.28</v>
-      </c>
-      <c r="Z17">
-        <v>41.7</v>
-      </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
-      <c r="AB17">
-        <v>0</v>
-      </c>
-      <c r="AC17">
-        <v>0</v>
-      </c>
-      <c r="AD17">
-        <v>0</v>
-      </c>
       <c r="AE17">
         <v>0</v>
       </c>
       <c r="AF17">
-        <v>14.21</v>
-      </c>
-      <c r="AG17">
-        <v>29.48</v>
-      </c>
-      <c r="AH17">
-        <v>13.61</v>
-      </c>
-      <c r="AI17">
-        <v>14.44</v>
-      </c>
-      <c r="AJ17">
-        <v>0</v>
-      </c>
-      <c r="AK17">
-        <v>0</v>
-      </c>
-      <c r="AL17">
-        <v>0</v>
-      </c>
-      <c r="AM17">
-        <v>0</v>
-      </c>
-      <c r="AN17">
-        <v>28.25</v>
-      </c>
-      <c r="AO17">
-        <v>0</v>
-      </c>
-      <c r="AP17">
-        <v>0</v>
-      </c>
-      <c r="AQ17">
-        <v>0</v>
-      </c>
-      <c r="AR17">
-        <v>10.79</v>
-      </c>
-      <c r="AS17">
-        <v>78.2</v>
-      </c>
-      <c r="AT17">
-        <v>3.58</v>
-      </c>
-      <c r="AU17">
-        <v>0</v>
-      </c>
-      <c r="AV17">
         <v>7.43</v>
       </c>
     </row>
-    <row r="18" spans="1:48">
+    <row r="18" spans="1:32">
       <c r="A18" s="1">
         <v>22215</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D18">
         <v>202009</v>
@@ -3044,10 +2180,10 @@
         <v>6128201787</v>
       </c>
       <c r="G18" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H18" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I18">
         <v>4831051000</v>
@@ -3056,7 +2192,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L18">
         <v>357989252</v>
@@ -3068,117 +2204,69 @@
         <v>61079.89285104931</v>
       </c>
       <c r="O18">
-        <v>82.71224401541531</v>
+        <v>1.486938996146175</v>
       </c>
       <c r="P18">
-        <v>17.2877559845847</v>
+        <v>5.566624744030025</v>
       </c>
       <c r="Q18">
-        <v>1.279083196218416</v>
+        <v>12.30382625481728</v>
       </c>
       <c r="R18">
-        <v>17.71854336084928</v>
+        <v>12.4187060601473</v>
       </c>
       <c r="S18">
-        <v>16.15492788319801</v>
+        <v>7.068140439869965</v>
       </c>
       <c r="T18">
-        <v>14.91018865186489</v>
+        <v>1.969981534305952</v>
       </c>
       <c r="U18">
-        <v>17.17294638242379</v>
+        <v>9.913626624131163</v>
       </c>
       <c r="V18">
-        <v>17.11443995296261</v>
+        <v>15.92285022668781</v>
       </c>
       <c r="W18">
-        <v>15.649870572483</v>
+        <v>16.64604814493146</v>
       </c>
       <c r="X18">
-        <v>38.97203689785636</v>
+        <v>16.7033235184949</v>
       </c>
       <c r="Y18">
-        <v>43.74037330880537</v>
+        <v>0.1893678361606231</v>
       </c>
       <c r="Z18">
-        <v>13.34129028024562</v>
+        <v>1.136207016963738</v>
       </c>
       <c r="AA18">
-        <v>0.6981146549617641</v>
+        <v>0</v>
       </c>
       <c r="AB18">
-        <v>2.064011079416429</v>
+        <v>19.70320141019205</v>
       </c>
       <c r="AC18">
-        <v>0.7755711935172848</v>
+        <v>37.05839929490397</v>
       </c>
       <c r="AD18">
-        <v>0.3986691287592065</v>
+        <v>18.40200013412693</v>
       </c>
       <c r="AE18">
-        <v>1.486938996146175</v>
+        <v>16.98896108791557</v>
       </c>
       <c r="AF18">
-        <v>5.566624744030025</v>
-      </c>
-      <c r="AG18">
-        <v>12.30382625481728</v>
-      </c>
-      <c r="AH18">
-        <v>12.4187060601473</v>
-      </c>
-      <c r="AI18">
-        <v>7.068140439869965</v>
-      </c>
-      <c r="AJ18">
-        <v>1.969981534305952</v>
-      </c>
-      <c r="AK18">
-        <v>9.913626624131163</v>
-      </c>
-      <c r="AL18">
-        <v>15.92285022668781</v>
-      </c>
-      <c r="AM18">
-        <v>16.64604814493146</v>
-      </c>
-      <c r="AN18">
-        <v>16.7033235184949</v>
-      </c>
-      <c r="AO18">
-        <v>0.1893678361606231</v>
-      </c>
-      <c r="AP18">
-        <v>1.136207016963738</v>
-      </c>
-      <c r="AQ18">
-        <v>0</v>
-      </c>
-      <c r="AR18">
-        <v>19.70320141019205</v>
-      </c>
-      <c r="AS18">
-        <v>37.05839929490397</v>
-      </c>
-      <c r="AT18">
-        <v>18.40200013412693</v>
-      </c>
-      <c r="AU18">
-        <v>16.98896108791557</v>
-      </c>
-      <c r="AV18">
         <v>6.51189649151813</v>
       </c>
     </row>
-    <row r="19" spans="1:48">
+    <row r="19" spans="1:32">
       <c r="A19" s="1">
         <v>22759</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D19">
         <v>202009</v>
@@ -3190,10 +2278,10 @@
         <v>1849300014</v>
       </c>
       <c r="G19" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H19" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I19">
         <v>4831051000</v>
@@ -3202,7 +2290,7 @@
         <v>1559.090909090909</v>
       </c>
       <c r="K19" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L19">
         <v>15230762</v>
@@ -3214,19 +2302,19 @@
         <v>413879</v>
       </c>
       <c r="O19">
-        <v>76.84999999999999</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>23.15</v>
+        <v>23.99</v>
       </c>
       <c r="Q19">
-        <v>23.15</v>
+        <v>10.36</v>
       </c>
       <c r="R19">
-        <v>41.82</v>
+        <v>24.67</v>
       </c>
       <c r="S19">
-        <v>34.47</v>
+        <v>0</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -3235,28 +2323,28 @@
         <v>0</v>
       </c>
       <c r="V19">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="W19">
         <v>0</v>
       </c>
       <c r="X19">
-        <v>0.55</v>
+        <v>40.99</v>
       </c>
       <c r="Y19">
-        <v>47.14</v>
+        <v>0</v>
       </c>
       <c r="Z19">
-        <v>52.31</v>
+        <v>0</v>
       </c>
       <c r="AA19">
         <v>0</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>17.84</v>
       </c>
       <c r="AC19">
-        <v>0</v>
+        <v>71.26000000000001</v>
       </c>
       <c r="AD19">
         <v>0</v>
@@ -3265,66 +2353,18 @@
         <v>0</v>
       </c>
       <c r="AF19">
-        <v>23.99</v>
-      </c>
-      <c r="AG19">
-        <v>10.36</v>
-      </c>
-      <c r="AH19">
-        <v>24.67</v>
-      </c>
-      <c r="AI19">
-        <v>0</v>
-      </c>
-      <c r="AJ19">
-        <v>0</v>
-      </c>
-      <c r="AK19">
-        <v>0</v>
-      </c>
-      <c r="AL19">
-        <v>0</v>
-      </c>
-      <c r="AM19">
-        <v>0</v>
-      </c>
-      <c r="AN19">
-        <v>40.99</v>
-      </c>
-      <c r="AO19">
-        <v>0</v>
-      </c>
-      <c r="AP19">
-        <v>0</v>
-      </c>
-      <c r="AQ19">
-        <v>0</v>
-      </c>
-      <c r="AR19">
-        <v>17.84</v>
-      </c>
-      <c r="AS19">
-        <v>71.26000000000001</v>
-      </c>
-      <c r="AT19">
-        <v>0</v>
-      </c>
-      <c r="AU19">
-        <v>0</v>
-      </c>
-      <c r="AV19">
         <v>10.9</v>
       </c>
     </row>
-    <row r="20" spans="1:48">
+    <row r="20" spans="1:32">
       <c r="A20" s="1">
         <v>25005</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D20">
         <v>202010</v>
@@ -3336,10 +2376,10 @@
         <v>6128201787</v>
       </c>
       <c r="G20" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H20" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I20">
         <v>4831051000</v>
@@ -3348,7 +2388,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L20">
         <v>359196714</v>
@@ -3360,117 +2400,69 @@
         <v>52140.61750616926</v>
       </c>
       <c r="O20">
-        <v>85.60002459699561</v>
+        <v>1.532849509864948</v>
       </c>
       <c r="P20">
-        <v>14.39997540300438</v>
+        <v>5.403729713407122</v>
       </c>
       <c r="Q20">
-        <v>1.244666172530743</v>
+        <v>11.08365792232721</v>
       </c>
       <c r="R20">
-        <v>21.1891901752197</v>
+        <v>15.50837752580331</v>
       </c>
       <c r="S20">
-        <v>19.55394567423576</v>
+        <v>8.297439654361648</v>
       </c>
       <c r="T20">
-        <v>11.35110040132494</v>
+        <v>1.068803210599527</v>
       </c>
       <c r="U20">
-        <v>25.66718214872088</v>
+        <v>14.69860619749434</v>
       </c>
       <c r="V20">
-        <v>10.90138815323349</v>
+        <v>14.3000647294897</v>
       </c>
       <c r="W20">
-        <v>10.09252727473448</v>
+        <v>14.86902905765446</v>
       </c>
       <c r="X20">
-        <v>51.9212488080278</v>
+        <v>13.21763666746684</v>
       </c>
       <c r="Y20">
-        <v>34.88744389131578</v>
+        <v>0.2881228447986303</v>
       </c>
       <c r="Z20">
-        <v>10.39638221016688</v>
+        <v>0.3676050088810111</v>
       </c>
       <c r="AA20">
-        <v>0.797994798137268</v>
+        <v>0</v>
       </c>
       <c r="AB20">
-        <v>0.2789038356291867</v>
+        <v>15.12394143728164</v>
       </c>
       <c r="AC20">
-        <v>0.8635931928375047</v>
+        <v>45.61702950506391</v>
       </c>
       <c r="AD20">
-        <v>0.864368534395891</v>
+        <v>19.6906156363112</v>
       </c>
       <c r="AE20">
-        <v>1.532849509864948</v>
+        <v>15.75132624837987</v>
       </c>
       <c r="AF20">
-        <v>5.403729713407122</v>
-      </c>
-      <c r="AG20">
-        <v>11.08365792232721</v>
-      </c>
-      <c r="AH20">
-        <v>15.50837752580331</v>
-      </c>
-      <c r="AI20">
-        <v>8.297439654361648</v>
-      </c>
-      <c r="AJ20">
-        <v>1.068803210599527</v>
-      </c>
-      <c r="AK20">
-        <v>14.69860619749434</v>
-      </c>
-      <c r="AL20">
-        <v>14.3000647294897</v>
-      </c>
-      <c r="AM20">
-        <v>14.86902905765446</v>
-      </c>
-      <c r="AN20">
-        <v>13.21763666746684</v>
-      </c>
-      <c r="AO20">
-        <v>0.2881228447986303</v>
-      </c>
-      <c r="AP20">
-        <v>0.3676050088810111</v>
-      </c>
-      <c r="AQ20">
-        <v>0</v>
-      </c>
-      <c r="AR20">
-        <v>15.12394143728164</v>
-      </c>
-      <c r="AS20">
-        <v>45.61702950506391</v>
-      </c>
-      <c r="AT20">
-        <v>19.6906156363112</v>
-      </c>
-      <c r="AU20">
-        <v>15.75132624837987</v>
-      </c>
-      <c r="AV20">
         <v>3.161424048773453</v>
       </c>
     </row>
-    <row r="21" spans="1:48">
+    <row r="21" spans="1:32">
       <c r="A21" s="1">
         <v>25558</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D21">
         <v>202010</v>
@@ -3482,10 +2474,10 @@
         <v>1849300014</v>
       </c>
       <c r="G21" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H21" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I21">
         <v>4831051000</v>
@@ -3494,7 +2486,7 @@
         <v>1559.090909090909</v>
       </c>
       <c r="K21" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L21">
         <v>23381144</v>
@@ -3506,117 +2498,69 @@
         <v>498799</v>
       </c>
       <c r="O21">
-        <v>85.54000000000001</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>14.46</v>
+        <v>14.78</v>
       </c>
       <c r="Q21">
-        <v>14.46</v>
+        <v>20.18</v>
       </c>
       <c r="R21">
+        <v>14.53</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>14.82</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>17.44</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>18.25</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>74.98</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>21.23</v>
+      </c>
+      <c r="AF21">
         <v>3.79</v>
       </c>
-      <c r="S21">
-        <v>45.7</v>
-      </c>
-      <c r="T21">
-        <v>32.26</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <v>3.79</v>
-      </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="X21">
-        <v>34.54</v>
-      </c>
-      <c r="Y21">
-        <v>65.36</v>
-      </c>
-      <c r="Z21">
-        <v>0.1</v>
-      </c>
-      <c r="AA21">
-        <v>0</v>
-      </c>
-      <c r="AB21">
-        <v>0</v>
-      </c>
-      <c r="AC21">
-        <v>0</v>
-      </c>
-      <c r="AD21">
-        <v>0</v>
-      </c>
-      <c r="AE21">
-        <v>0</v>
-      </c>
-      <c r="AF21">
-        <v>14.78</v>
-      </c>
-      <c r="AG21">
-        <v>20.18</v>
-      </c>
-      <c r="AH21">
-        <v>14.53</v>
-      </c>
-      <c r="AI21">
-        <v>0</v>
-      </c>
-      <c r="AJ21">
-        <v>14.82</v>
-      </c>
-      <c r="AK21">
-        <v>0</v>
-      </c>
-      <c r="AL21">
-        <v>17.44</v>
-      </c>
-      <c r="AM21">
-        <v>0</v>
-      </c>
-      <c r="AN21">
-        <v>18.25</v>
-      </c>
-      <c r="AO21">
-        <v>0</v>
-      </c>
-      <c r="AP21">
-        <v>0</v>
-      </c>
-      <c r="AQ21">
-        <v>0</v>
-      </c>
-      <c r="AR21">
-        <v>0</v>
-      </c>
-      <c r="AS21">
-        <v>74.98</v>
-      </c>
-      <c r="AT21">
-        <v>0</v>
-      </c>
-      <c r="AU21">
-        <v>21.23</v>
-      </c>
-      <c r="AV21">
-        <v>3.79</v>
-      </c>
     </row>
-    <row r="22" spans="1:48">
+    <row r="22" spans="1:32">
       <c r="A22" s="1">
         <v>27800</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D22">
         <v>202011</v>
@@ -3628,10 +2572,10 @@
         <v>6128201787</v>
       </c>
       <c r="G22" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H22" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I22">
         <v>4831051000</v>
@@ -3640,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L22">
         <v>301980596</v>
@@ -3652,117 +2596,69 @@
         <v>45492.70804459175</v>
       </c>
       <c r="O22">
-        <v>79.59938533759301</v>
+        <v>1.449126986688906</v>
       </c>
       <c r="P22">
-        <v>20.40061466240698</v>
+        <v>8.138748803780759</v>
       </c>
       <c r="Q22">
-        <v>2.090524444888505</v>
+        <v>14.95526814696398</v>
       </c>
       <c r="R22">
-        <v>22.7063461986147</v>
+        <v>12.5044926416398</v>
       </c>
       <c r="S22">
-        <v>10.48472456256759</v>
+        <v>3.995721966453765</v>
       </c>
       <c r="T22">
-        <v>15.87536337566537</v>
+        <v>3.351665831469516</v>
       </c>
       <c r="U22">
-        <v>18.07354627103259</v>
+        <v>11.04811956043692</v>
       </c>
       <c r="V22">
-        <v>12.45936346618774</v>
+        <v>20.10976579978668</v>
       </c>
       <c r="W22">
-        <v>18.32004875399345</v>
+        <v>13.89979268237486</v>
       </c>
       <c r="X22">
-        <v>40.78126076597319</v>
+        <v>10.5372975804048</v>
       </c>
       <c r="Y22">
-        <v>36.3900633349303</v>
+        <v>0.4400414635250273</v>
       </c>
       <c r="Z22">
-        <v>18.68588053008545</v>
+        <v>1.027595115548418</v>
       </c>
       <c r="AA22">
-        <v>1.577524490149692</v>
+        <v>0</v>
       </c>
       <c r="AB22">
-        <v>0.4540684366355778</v>
+        <v>8.468305006656784</v>
       </c>
       <c r="AC22">
-        <v>0.9161780652290653</v>
+        <v>50.31488540548479</v>
       </c>
       <c r="AD22">
-        <v>1.195024376996726</v>
+        <v>22.57702920713488</v>
       </c>
       <c r="AE22">
-        <v>1.449126986688906</v>
+        <v>14.34077550532419</v>
       </c>
       <c r="AF22">
-        <v>8.138748803780759</v>
-      </c>
-      <c r="AG22">
-        <v>14.95526814696398</v>
-      </c>
-      <c r="AH22">
-        <v>12.5044926416398</v>
-      </c>
-      <c r="AI22">
-        <v>3.995721966453765</v>
-      </c>
-      <c r="AJ22">
-        <v>3.351665831469516</v>
-      </c>
-      <c r="AK22">
-        <v>11.04811956043692</v>
-      </c>
-      <c r="AL22">
-        <v>20.10976579978668</v>
-      </c>
-      <c r="AM22">
-        <v>13.89979268237486</v>
-      </c>
-      <c r="AN22">
-        <v>10.5372975804048</v>
-      </c>
-      <c r="AO22">
-        <v>0.4400414635250273</v>
-      </c>
-      <c r="AP22">
-        <v>1.027595115548418</v>
-      </c>
-      <c r="AQ22">
-        <v>0</v>
-      </c>
-      <c r="AR22">
-        <v>8.468305006656784</v>
-      </c>
-      <c r="AS22">
-        <v>50.31488540548479</v>
-      </c>
-      <c r="AT22">
-        <v>22.57702920713488</v>
-      </c>
-      <c r="AU22">
-        <v>14.34077550532419</v>
-      </c>
-      <c r="AV22">
         <v>2.841326832800873</v>
       </c>
     </row>
-    <row r="23" spans="1:48">
+    <row r="23" spans="1:32">
       <c r="A23" s="1">
         <v>28349</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D23">
         <v>202011</v>
@@ -3774,10 +2670,10 @@
         <v>1849300014</v>
       </c>
       <c r="G23" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H23" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I23">
         <v>4831051000</v>
@@ -3786,7 +2682,7 @@
         <v>1559.090909090909</v>
       </c>
       <c r="K23" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L23">
         <v>26922624</v>
@@ -3798,117 +2694,69 @@
         <v>432653</v>
       </c>
       <c r="O23">
-        <v>48.23</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>51.77</v>
+        <v>13.19</v>
       </c>
       <c r="Q23">
-        <v>51.77</v>
+        <v>44.87</v>
       </c>
       <c r="R23">
-        <v>0.13</v>
+        <v>14.76</v>
       </c>
       <c r="S23">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="T23">
-        <v>14.3</v>
+        <v>0</v>
       </c>
       <c r="U23">
-        <v>33.47</v>
+        <v>0</v>
       </c>
       <c r="V23">
         <v>0</v>
       </c>
       <c r="W23">
-        <v>0</v>
+        <v>14.51</v>
       </c>
       <c r="X23">
         <v>12.67</v>
       </c>
       <c r="Y23">
-        <v>15.54</v>
+        <v>0</v>
       </c>
       <c r="Z23">
-        <v>32.69</v>
+        <v>0</v>
       </c>
       <c r="AA23">
         <v>0</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="AC23">
-        <v>0</v>
+        <v>79.58</v>
       </c>
       <c r="AD23">
-        <v>39.1</v>
+        <v>0</v>
       </c>
       <c r="AE23">
-        <v>0</v>
+        <v>14.51</v>
       </c>
       <c r="AF23">
-        <v>13.19</v>
-      </c>
-      <c r="AG23">
-        <v>44.87</v>
-      </c>
-      <c r="AH23">
-        <v>14.76</v>
-      </c>
-      <c r="AI23">
-        <v>0</v>
-      </c>
-      <c r="AJ23">
-        <v>0</v>
-      </c>
-      <c r="AK23">
-        <v>0</v>
-      </c>
-      <c r="AL23">
-        <v>0</v>
-      </c>
-      <c r="AM23">
-        <v>14.51</v>
-      </c>
-      <c r="AN23">
-        <v>12.67</v>
-      </c>
-      <c r="AO23">
-        <v>0</v>
-      </c>
-      <c r="AP23">
-        <v>0</v>
-      </c>
-      <c r="AQ23">
-        <v>0</v>
-      </c>
-      <c r="AR23">
-        <v>0.13</v>
-      </c>
-      <c r="AS23">
-        <v>79.58</v>
-      </c>
-      <c r="AT23">
-        <v>0</v>
-      </c>
-      <c r="AU23">
-        <v>14.51</v>
-      </c>
-      <c r="AV23">
         <v>5.78</v>
       </c>
     </row>
-    <row r="24" spans="1:48">
+    <row r="24" spans="1:32">
       <c r="A24" s="1">
         <v>30595</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D24">
         <v>202012</v>
@@ -3920,10 +2768,10 @@
         <v>6128201787</v>
       </c>
       <c r="G24" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H24" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I24">
         <v>4831051000</v>
@@ -3932,7 +2780,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L24">
         <v>382248072</v>
@@ -3944,117 +2792,69 @@
         <v>58708.04361849179</v>
       </c>
       <c r="O24">
-        <v>77.71118664954312</v>
+        <v>1.374500777861346</v>
       </c>
       <c r="P24">
-        <v>22.28881335045687</v>
+        <v>13.07330971155297</v>
       </c>
       <c r="Q24">
-        <v>1.717263639226413</v>
+        <v>16.18852557087587</v>
       </c>
       <c r="R24">
-        <v>17.85612797958076</v>
+        <v>10.79867613508852</v>
       </c>
       <c r="S24">
-        <v>14.89339382718979</v>
+        <v>7.675939774314937</v>
       </c>
       <c r="T24">
-        <v>17.69090991187523</v>
+        <v>1.704821781730269</v>
       </c>
       <c r="U24">
-        <v>17.05461811778608</v>
+        <v>9.3960593226223</v>
       </c>
       <c r="V24">
-        <v>12.39996015056421</v>
+        <v>12.77393846899508</v>
       </c>
       <c r="W24">
-        <v>18.38772637377749</v>
+        <v>17.07702454261169</v>
       </c>
       <c r="X24">
-        <v>43.39081033756005</v>
+        <v>9.937243763782805</v>
       </c>
       <c r="Y24">
-        <v>45.49808501869958</v>
+        <v>0.2508766875873216</v>
       </c>
       <c r="Z24">
-        <v>8.483192371628236</v>
+        <v>0.2589639146695291</v>
       </c>
       <c r="AA24">
-        <v>1.042089837721928</v>
+        <v>0</v>
       </c>
       <c r="AB24">
-        <v>0.7664998747985836</v>
+        <v>9.647048933369112</v>
       </c>
       <c r="AC24">
-        <v>0.5603187954862989</v>
+        <v>50.87693601020962</v>
       </c>
       <c r="AD24">
-        <v>0.2589639146695291</v>
+        <v>18.69327427888243</v>
       </c>
       <c r="AE24">
-        <v>1.374500777861346</v>
+        <v>15.59951297324006</v>
       </c>
       <c r="AF24">
-        <v>13.07330971155297</v>
-      </c>
-      <c r="AG24">
-        <v>16.18852557087587</v>
-      </c>
-      <c r="AH24">
-        <v>10.79867613508852</v>
-      </c>
-      <c r="AI24">
-        <v>7.675939774314937</v>
-      </c>
-      <c r="AJ24">
-        <v>1.704821781730269</v>
-      </c>
-      <c r="AK24">
-        <v>9.3960593226223</v>
-      </c>
-      <c r="AL24">
-        <v>12.77393846899508</v>
-      </c>
-      <c r="AM24">
-        <v>17.07702454261169</v>
-      </c>
-      <c r="AN24">
-        <v>9.937243763782805</v>
-      </c>
-      <c r="AO24">
-        <v>0.2508766875873216</v>
-      </c>
-      <c r="AP24">
-        <v>0.2589639146695291</v>
-      </c>
-      <c r="AQ24">
-        <v>0</v>
-      </c>
-      <c r="AR24">
-        <v>9.647048933369112</v>
-      </c>
-      <c r="AS24">
-        <v>50.87693601020962</v>
-      </c>
-      <c r="AT24">
-        <v>18.69327427888243</v>
-      </c>
-      <c r="AU24">
-        <v>15.59951297324006</v>
-      </c>
-      <c r="AV24">
         <v>4.683347352606137</v>
       </c>
     </row>
-    <row r="25" spans="1:48">
+    <row r="25" spans="1:32">
       <c r="A25" s="1">
         <v>31143</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D25">
         <v>202012</v>
@@ -4066,10 +2866,10 @@
         <v>1849300014</v>
       </c>
       <c r="G25" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H25" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I25">
         <v>4831051000</v>
@@ -4078,7 +2878,7 @@
         <v>1559.090909090909</v>
       </c>
       <c r="K25" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L25">
         <v>29067254</v>
@@ -4090,117 +2890,69 @@
         <v>371896</v>
       </c>
       <c r="O25">
-        <v>74.22</v>
+        <v>0.06</v>
       </c>
       <c r="P25">
-        <v>25.78</v>
+        <v>11.93</v>
       </c>
       <c r="Q25">
-        <v>11.42</v>
+        <v>42.81</v>
       </c>
       <c r="R25">
-        <v>0.49</v>
+        <v>31.34</v>
       </c>
       <c r="S25">
-        <v>43.09</v>
+        <v>0</v>
       </c>
       <c r="T25">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="U25">
-        <v>30.13</v>
+        <v>0</v>
       </c>
       <c r="V25">
-        <v>2.49</v>
+        <v>0</v>
       </c>
       <c r="W25">
-        <v>11.93</v>
+        <v>0</v>
       </c>
       <c r="X25">
-        <v>0.06</v>
+        <v>13.85</v>
       </c>
       <c r="Y25">
-        <v>81.12</v>
+        <v>0</v>
       </c>
       <c r="Z25">
-        <v>18.81</v>
+        <v>0</v>
       </c>
       <c r="AA25">
         <v>0</v>
       </c>
       <c r="AB25">
-        <v>0</v>
+        <v>17.03</v>
       </c>
       <c r="AC25">
-        <v>0</v>
+        <v>80.54000000000001</v>
       </c>
       <c r="AD25">
         <v>0</v>
       </c>
       <c r="AE25">
-        <v>0.06</v>
+        <v>2.43</v>
       </c>
       <c r="AF25">
-        <v>11.93</v>
-      </c>
-      <c r="AG25">
-        <v>42.81</v>
-      </c>
-      <c r="AH25">
-        <v>31.34</v>
-      </c>
-      <c r="AI25">
-        <v>0</v>
-      </c>
-      <c r="AJ25">
-        <v>0</v>
-      </c>
-      <c r="AK25">
-        <v>0</v>
-      </c>
-      <c r="AL25">
-        <v>0</v>
-      </c>
-      <c r="AM25">
-        <v>0</v>
-      </c>
-      <c r="AN25">
-        <v>13.85</v>
-      </c>
-      <c r="AO25">
-        <v>0</v>
-      </c>
-      <c r="AP25">
-        <v>0</v>
-      </c>
-      <c r="AQ25">
-        <v>0</v>
-      </c>
-      <c r="AR25">
-        <v>17.03</v>
-      </c>
-      <c r="AS25">
-        <v>80.54000000000001</v>
-      </c>
-      <c r="AT25">
-        <v>0</v>
-      </c>
-      <c r="AU25">
-        <v>2.43</v>
-      </c>
-      <c r="AV25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:48">
+    <row r="26" spans="1:32">
       <c r="A26" s="1">
         <v>33394</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D26">
         <v>202101</v>
@@ -4212,10 +2964,10 @@
         <v>6128201787</v>
       </c>
       <c r="G26" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H26" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I26">
         <v>4831051000</v>
@@ -4224,7 +2976,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L26">
         <v>250755646</v>
@@ -4236,117 +2988,69 @@
         <v>49448.95405245513</v>
       </c>
       <c r="O26">
-        <v>82.58814244549454</v>
+        <v>0.6416348396797414</v>
       </c>
       <c r="P26">
-        <v>17.41185755450548</v>
+        <v>7.272654131065906</v>
       </c>
       <c r="Q26">
-        <v>3.94712812093571</v>
+        <v>9.811110559241406</v>
       </c>
       <c r="R26">
-        <v>19.90751847098988</v>
+        <v>5.60617082791428</v>
       </c>
       <c r="S26">
-        <v>12.80515153652811</v>
+        <v>8.090513370813593</v>
       </c>
       <c r="T26">
-        <v>13.30838946298342</v>
+        <v>2.4484564281755</v>
       </c>
       <c r="U26">
-        <v>19.76925797156327</v>
+        <v>7.823347554176308</v>
       </c>
       <c r="V26">
-        <v>17.05654778493004</v>
+        <v>21.5127404320938</v>
       </c>
       <c r="W26">
-        <v>13.20605774080955</v>
+        <v>23.88592877725274</v>
       </c>
       <c r="X26">
-        <v>45.82865927569184</v>
+        <v>12.90739199084674</v>
       </c>
       <c r="Y26">
-        <v>34.03727393691467</v>
+        <v>0.2089271364601697</v>
       </c>
       <c r="Z26">
-        <v>11.91908288609382</v>
+        <v>0.02984673378002424</v>
       </c>
       <c r="AA26">
-        <v>2.267221872204624</v>
+        <v>0</v>
       </c>
       <c r="AB26">
-        <v>2.048157345976569</v>
+        <v>12.43548237163123</v>
       </c>
       <c r="AC26">
-        <v>2.427165816637285</v>
+        <v>53.00897574178648</v>
       </c>
       <c r="AD26">
-        <v>1.472438866481196</v>
+        <v>18.47298744958269</v>
       </c>
       <c r="AE26">
-        <v>0.6416348396797414</v>
+        <v>13.91369178231783</v>
       </c>
       <c r="AF26">
-        <v>7.272654131065906</v>
-      </c>
-      <c r="AG26">
-        <v>9.811110559241406</v>
-      </c>
-      <c r="AH26">
-        <v>5.60617082791428</v>
-      </c>
-      <c r="AI26">
-        <v>8.090513370813593</v>
-      </c>
-      <c r="AJ26">
-        <v>2.4484564281755</v>
-      </c>
-      <c r="AK26">
-        <v>7.823347554176308</v>
-      </c>
-      <c r="AL26">
-        <v>21.5127404320938</v>
-      </c>
-      <c r="AM26">
-        <v>23.88592877725274</v>
-      </c>
-      <c r="AN26">
-        <v>12.90739199084674</v>
-      </c>
-      <c r="AO26">
-        <v>0.2089271364601697</v>
-      </c>
-      <c r="AP26">
-        <v>0.02984673378002424</v>
-      </c>
-      <c r="AQ26">
-        <v>0</v>
-      </c>
-      <c r="AR26">
-        <v>12.43548237163123</v>
-      </c>
-      <c r="AS26">
-        <v>53.00897574178648</v>
-      </c>
-      <c r="AT26">
-        <v>18.47298744958269</v>
-      </c>
-      <c r="AU26">
-        <v>13.91369178231783</v>
-      </c>
-      <c r="AV26">
         <v>1.930088784441568</v>
       </c>
     </row>
-    <row r="27" spans="1:48">
+    <row r="27" spans="1:32">
       <c r="A27" s="1">
         <v>33938</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D27">
         <v>202101</v>
@@ -4358,10 +3062,10 @@
         <v>1849300014</v>
       </c>
       <c r="G27" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H27" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I27">
         <v>4831051000</v>
@@ -4370,7 +3074,7 @@
         <v>1559.090909090909</v>
       </c>
       <c r="K27" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L27">
         <v>15045644</v>
@@ -4382,40 +3086,40 @@
         <v>592894</v>
       </c>
       <c r="O27">
-        <v>59.18</v>
+        <v>0</v>
       </c>
       <c r="P27">
-        <v>40.82</v>
+        <v>23.18</v>
       </c>
       <c r="Q27">
         <v>0</v>
       </c>
       <c r="R27">
-        <v>0</v>
+        <v>35.96</v>
       </c>
       <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>17.98</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
         <v>0.04</v>
-      </c>
-      <c r="T27">
-        <v>59.14</v>
-      </c>
-      <c r="U27">
-        <v>0</v>
-      </c>
-      <c r="V27">
-        <v>0</v>
-      </c>
-      <c r="W27">
-        <v>40.82</v>
       </c>
       <c r="X27">
         <v>22.85</v>
       </c>
       <c r="Y27">
-        <v>53.94</v>
+        <v>0</v>
       </c>
       <c r="Z27">
-        <v>23.22</v>
+        <v>0</v>
       </c>
       <c r="AA27">
         <v>0</v>
@@ -4424,7 +3128,7 @@
         <v>0</v>
       </c>
       <c r="AC27">
-        <v>0</v>
+        <v>99.95999999999999</v>
       </c>
       <c r="AD27">
         <v>0</v>
@@ -4433,66 +3137,18 @@
         <v>0</v>
       </c>
       <c r="AF27">
-        <v>23.18</v>
-      </c>
-      <c r="AG27">
-        <v>0</v>
-      </c>
-      <c r="AH27">
-        <v>35.96</v>
-      </c>
-      <c r="AI27">
-        <v>0</v>
-      </c>
-      <c r="AJ27">
-        <v>17.98</v>
-      </c>
-      <c r="AK27">
-        <v>0</v>
-      </c>
-      <c r="AL27">
-        <v>0</v>
-      </c>
-      <c r="AM27">
         <v>0.04</v>
       </c>
-      <c r="AN27">
-        <v>22.85</v>
-      </c>
-      <c r="AO27">
-        <v>0</v>
-      </c>
-      <c r="AP27">
-        <v>0</v>
-      </c>
-      <c r="AQ27">
-        <v>0</v>
-      </c>
-      <c r="AR27">
-        <v>0</v>
-      </c>
-      <c r="AS27">
-        <v>99.95999999999999</v>
-      </c>
-      <c r="AT27">
-        <v>0</v>
-      </c>
-      <c r="AU27">
-        <v>0</v>
-      </c>
-      <c r="AV27">
-        <v>0.04</v>
-      </c>
     </row>
-    <row r="28" spans="1:48">
+    <row r="28" spans="1:32">
       <c r="A28" s="1">
         <v>36196</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D28">
         <v>202102</v>
@@ -4504,10 +3160,10 @@
         <v>6128201787</v>
       </c>
       <c r="G28" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H28" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I28">
         <v>4831051000</v>
@@ -4516,7 +3172,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L28">
         <v>285567330</v>
@@ -4528,117 +3184,69 @@
         <v>53698.25686348251</v>
       </c>
       <c r="O28">
-        <v>81.00395927013079</v>
+        <v>0.6083673500046382</v>
       </c>
       <c r="P28">
-        <v>18.9960407298692</v>
+        <v>10.41228570999351</v>
       </c>
       <c r="Q28">
-        <v>1.536361372640211</v>
+        <v>14.48955104002968</v>
       </c>
       <c r="R28">
-        <v>23.47188339716591</v>
+        <v>12.3028397387054</v>
       </c>
       <c r="S28">
-        <v>13.40746943006401</v>
+        <v>4.104944446901542</v>
       </c>
       <c r="T28">
-        <v>12.24453050984508</v>
+        <v>7.175043778642326</v>
       </c>
       <c r="U28">
-        <v>19.45620422020965</v>
+        <v>10.11482216715757</v>
       </c>
       <c r="V28">
-        <v>14.26528863858481</v>
+        <v>15.41493886012801</v>
       </c>
       <c r="W28">
-        <v>15.62826243149033</v>
+        <v>16.32812233983488</v>
       </c>
       <c r="X28">
-        <v>33.38618097175192</v>
+        <v>9.049084568602439</v>
       </c>
       <c r="Y28">
-        <v>53.64418661861636</v>
+        <v>0.08958017571547837</v>
       </c>
       <c r="Z28">
-        <v>9.397340962637427</v>
+        <v>0.364478125701564</v>
       </c>
       <c r="AA28">
-        <v>1.360303131314076</v>
+        <v>0</v>
       </c>
       <c r="AB28">
-        <v>0.9778192085208064</v>
+        <v>12.04867048131872</v>
       </c>
       <c r="AC28">
-        <v>0.6967347000092762</v>
+        <v>50.43099710145415</v>
       </c>
       <c r="AD28">
-        <v>0.5374810542928704</v>
+        <v>17.75694468726517</v>
       </c>
       <c r="AE28">
-        <v>0.6083673500046382</v>
+        <v>14.43549273861264</v>
       </c>
       <c r="AF28">
-        <v>10.41228570999351</v>
-      </c>
-      <c r="AG28">
-        <v>14.48955104002968</v>
-      </c>
-      <c r="AH28">
-        <v>12.3028397387054</v>
-      </c>
-      <c r="AI28">
-        <v>4.104944446901542</v>
-      </c>
-      <c r="AJ28">
-        <v>7.175043778642326</v>
-      </c>
-      <c r="AK28">
-        <v>10.11482216715757</v>
-      </c>
-      <c r="AL28">
-        <v>15.41493886012801</v>
-      </c>
-      <c r="AM28">
-        <v>16.32812233983488</v>
-      </c>
-      <c r="AN28">
-        <v>9.049084568602439</v>
-      </c>
-      <c r="AO28">
-        <v>0.08958017571547837</v>
-      </c>
-      <c r="AP28">
-        <v>0.364478125701564</v>
-      </c>
-      <c r="AQ28">
-        <v>0</v>
-      </c>
-      <c r="AR28">
-        <v>12.04867048131872</v>
-      </c>
-      <c r="AS28">
-        <v>50.43099710145415</v>
-      </c>
-      <c r="AT28">
-        <v>17.75694468726517</v>
-      </c>
-      <c r="AU28">
-        <v>14.43549273861264</v>
-      </c>
-      <c r="AV28">
         <v>4.873883337075008</v>
       </c>
     </row>
-    <row r="29" spans="1:48">
+    <row r="29" spans="1:32">
       <c r="A29" s="1">
         <v>36732</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D29">
         <v>202102</v>
@@ -4650,10 +3258,10 @@
         <v>1849300014</v>
       </c>
       <c r="G29" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H29" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I29">
         <v>4831051000</v>
@@ -4662,7 +3270,7 @@
         <v>1559.090909090909</v>
       </c>
       <c r="K29" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L29">
         <v>13783756</v>
@@ -4674,22 +3282,22 @@
         <v>389000</v>
       </c>
       <c r="O29">
-        <v>74.98999999999999</v>
+        <v>0</v>
       </c>
       <c r="P29">
-        <v>25.01</v>
+        <v>25.37</v>
       </c>
       <c r="Q29">
         <v>0</v>
       </c>
       <c r="R29">
-        <v>25.37</v>
+        <v>24.34</v>
       </c>
       <c r="S29">
-        <v>19.48</v>
+        <v>0</v>
       </c>
       <c r="T29">
-        <v>30.15</v>
+        <v>0</v>
       </c>
       <c r="U29">
         <v>0</v>
@@ -4698,16 +3306,16 @@
         <v>0</v>
       </c>
       <c r="W29">
-        <v>25.01</v>
+        <v>19.52</v>
       </c>
       <c r="X29">
         <v>30.77</v>
       </c>
       <c r="Y29">
-        <v>44.76</v>
+        <v>0</v>
       </c>
       <c r="Z29">
-        <v>24.47</v>
+        <v>0</v>
       </c>
       <c r="AA29">
         <v>0</v>
@@ -4716,75 +3324,27 @@
         <v>0</v>
       </c>
       <c r="AC29">
-        <v>0</v>
+        <v>50.37</v>
       </c>
       <c r="AD29">
-        <v>0</v>
+        <v>24.34</v>
       </c>
       <c r="AE29">
-        <v>0</v>
+        <v>25.24</v>
       </c>
       <c r="AF29">
-        <v>25.37</v>
-      </c>
-      <c r="AG29">
-        <v>0</v>
-      </c>
-      <c r="AH29">
-        <v>24.34</v>
-      </c>
-      <c r="AI29">
-        <v>0</v>
-      </c>
-      <c r="AJ29">
-        <v>0</v>
-      </c>
-      <c r="AK29">
-        <v>0</v>
-      </c>
-      <c r="AL29">
-        <v>0</v>
-      </c>
-      <c r="AM29">
-        <v>19.52</v>
-      </c>
-      <c r="AN29">
-        <v>30.77</v>
-      </c>
-      <c r="AO29">
-        <v>0</v>
-      </c>
-      <c r="AP29">
-        <v>0</v>
-      </c>
-      <c r="AQ29">
-        <v>0</v>
-      </c>
-      <c r="AR29">
-        <v>0</v>
-      </c>
-      <c r="AS29">
-        <v>50.37</v>
-      </c>
-      <c r="AT29">
-        <v>24.34</v>
-      </c>
-      <c r="AU29">
-        <v>25.24</v>
-      </c>
-      <c r="AV29">
         <v>0.04</v>
       </c>
     </row>
-    <row r="30" spans="1:48">
+    <row r="30" spans="1:32">
       <c r="A30" s="1">
         <v>38989</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D30">
         <v>202103</v>
@@ -4796,10 +3356,10 @@
         <v>6128201787</v>
       </c>
       <c r="G30" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H30" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I30">
         <v>4831051000</v>
@@ -4808,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L30">
         <v>284192820</v>
@@ -4820,117 +3380,69 @@
         <v>45456.30518234165</v>
       </c>
       <c r="O30">
-        <v>85.82596527906651</v>
+        <v>1.026070127880078</v>
       </c>
       <c r="P30">
-        <v>14.17403472093348</v>
+        <v>6.916346213532066</v>
       </c>
       <c r="Q30">
-        <v>1.790834381248619</v>
+        <v>18.82067710802828</v>
       </c>
       <c r="R30">
-        <v>18.31820834220935</v>
+        <v>9.25100765951793</v>
       </c>
       <c r="S30">
-        <v>27.38400238443744</v>
+        <v>6.89508459770377</v>
       </c>
       <c r="T30">
-        <v>19.00327489343327</v>
+        <v>1.014860936458564</v>
       </c>
       <c r="U30">
-        <v>13.0925715732016</v>
+        <v>11.73959897762371</v>
       </c>
       <c r="V30">
-        <v>10.65405480884422</v>
+        <v>16.69100970094881</v>
       </c>
       <c r="W30">
-        <v>9.757053616625502</v>
+        <v>16.52949412881015</v>
       </c>
       <c r="X30">
-        <v>47.88336341079975</v>
+        <v>11.10590093247254</v>
       </c>
       <c r="Y30">
-        <v>35.87571132275615</v>
+        <v>0.2089419575061749</v>
       </c>
       <c r="Z30">
-        <v>12.27804322966358</v>
+        <v>0.2487404256025891</v>
       </c>
       <c r="AA30">
-        <v>1.698794891440255</v>
+        <v>0</v>
       </c>
       <c r="AB30">
-        <v>0.4010883375589854</v>
+        <v>11.33456068003407</v>
       </c>
       <c r="AC30">
-        <v>0.6192966797683347</v>
+        <v>44.19924629679244</v>
       </c>
       <c r="AD30">
-        <v>1.243702128012946</v>
+        <v>29.7886134474474</v>
       </c>
       <c r="AE30">
-        <v>1.026070127880078</v>
+        <v>11.76669685293246</v>
       </c>
       <c r="AF30">
-        <v>6.916346213532066</v>
-      </c>
-      <c r="AG30">
-        <v>18.82067710802828</v>
-      </c>
-      <c r="AH30">
-        <v>9.25100765951793</v>
-      </c>
-      <c r="AI30">
-        <v>6.89508459770377</v>
-      </c>
-      <c r="AJ30">
-        <v>1.014860936458564</v>
-      </c>
-      <c r="AK30">
-        <v>11.73959897762371</v>
-      </c>
-      <c r="AL30">
-        <v>16.69100970094881</v>
-      </c>
-      <c r="AM30">
-        <v>16.52949412881015</v>
-      </c>
-      <c r="AN30">
-        <v>11.10590093247254</v>
-      </c>
-      <c r="AO30">
-        <v>0.2089419575061749</v>
-      </c>
-      <c r="AP30">
-        <v>0.2487404256025891</v>
-      </c>
-      <c r="AQ30">
-        <v>0</v>
-      </c>
-      <c r="AR30">
-        <v>11.33456068003407</v>
-      </c>
-      <c r="AS30">
-        <v>44.19924629679244</v>
-      </c>
-      <c r="AT30">
-        <v>29.7886134474474</v>
-      </c>
-      <c r="AU30">
-        <v>11.76669685293246</v>
-      </c>
-      <c r="AV30">
         <v>2.443250722660763</v>
       </c>
     </row>
-    <row r="31" spans="1:48">
+    <row r="31" spans="1:32">
       <c r="A31" s="1">
         <v>39528</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D31">
         <v>202103</v>
@@ -4942,10 +3454,10 @@
         <v>1849300014</v>
       </c>
       <c r="G31" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H31" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I31">
         <v>4831051000</v>
@@ -4954,7 +3466,7 @@
         <v>1559.090909090909</v>
       </c>
       <c r="K31" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L31">
         <v>15639372</v>
@@ -4966,40 +3478,40 @@
         <v>428541</v>
       </c>
       <c r="O31">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>20.91</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>38.04</v>
       </c>
       <c r="R31">
+        <v>19.91</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0.58</v>
+      </c>
+      <c r="W31">
         <v>0.04</v>
-      </c>
-      <c r="S31">
-        <v>20.51</v>
-      </c>
-      <c r="T31">
-        <v>19.91</v>
-      </c>
-      <c r="U31">
-        <v>25.9</v>
-      </c>
-      <c r="V31">
-        <v>33.64</v>
-      </c>
-      <c r="W31">
-        <v>0</v>
       </c>
       <c r="X31">
         <v>20.51</v>
       </c>
       <c r="Y31">
-        <v>32.64</v>
+        <v>0</v>
       </c>
       <c r="Z31">
-        <v>46.85</v>
+        <v>0</v>
       </c>
       <c r="AA31">
         <v>0</v>
@@ -5008,75 +3520,27 @@
         <v>0</v>
       </c>
       <c r="AC31">
-        <v>0</v>
+        <v>54.15</v>
       </c>
       <c r="AD31">
-        <v>0</v>
+        <v>19.91</v>
       </c>
       <c r="AE31">
-        <v>0</v>
+        <v>25.9</v>
       </c>
       <c r="AF31">
-        <v>20.91</v>
-      </c>
-      <c r="AG31">
-        <v>38.04</v>
-      </c>
-      <c r="AH31">
-        <v>19.91</v>
-      </c>
-      <c r="AI31">
-        <v>0</v>
-      </c>
-      <c r="AJ31">
-        <v>0</v>
-      </c>
-      <c r="AK31">
-        <v>0</v>
-      </c>
-      <c r="AL31">
-        <v>0.58</v>
-      </c>
-      <c r="AM31">
         <v>0.04</v>
       </c>
-      <c r="AN31">
-        <v>20.51</v>
-      </c>
-      <c r="AO31">
-        <v>0</v>
-      </c>
-      <c r="AP31">
-        <v>0</v>
-      </c>
-      <c r="AQ31">
-        <v>0</v>
-      </c>
-      <c r="AR31">
-        <v>0</v>
-      </c>
-      <c r="AS31">
-        <v>54.15</v>
-      </c>
-      <c r="AT31">
-        <v>19.91</v>
-      </c>
-      <c r="AU31">
-        <v>25.9</v>
-      </c>
-      <c r="AV31">
-        <v>0.04</v>
-      </c>
     </row>
-    <row r="32" spans="1:48">
+    <row r="32" spans="1:32">
       <c r="A32" s="1">
         <v>41793</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D32">
         <v>202104</v>
@@ -5088,10 +3552,10 @@
         <v>6128201787</v>
       </c>
       <c r="G32" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H32" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I32">
         <v>4831051000</v>
@@ -5100,7 +3564,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L32">
         <v>370164628</v>
@@ -5112,117 +3576,69 @@
         <v>57036.15223420647</v>
       </c>
       <c r="O32">
-        <v>87.48444343644852</v>
+        <v>1.543112673504828</v>
       </c>
       <c r="P32">
-        <v>12.5155565635515</v>
+        <v>4.580395373298606</v>
       </c>
       <c r="Q32">
-        <v>5.74639628049496</v>
+        <v>11.81954658439163</v>
       </c>
       <c r="R32">
-        <v>16.7020018143927</v>
+        <v>7.315023351177683</v>
       </c>
       <c r="S32">
-        <v>14.32768941304678</v>
+        <v>8.160806622533366</v>
       </c>
       <c r="T32">
-        <v>20.18347041641159</v>
+        <v>2.205956472831867</v>
       </c>
       <c r="U32">
-        <v>19.62812695271899</v>
+        <v>8.875147582307621</v>
       </c>
       <c r="V32">
-        <v>16.64311040551395</v>
+        <v>21.7290247119722</v>
       </c>
       <c r="W32">
-        <v>6.769160283056544</v>
+        <v>24.3160498775426</v>
       </c>
       <c r="X32">
-        <v>45.1845082827309</v>
+        <v>9.454981184804078</v>
       </c>
       <c r="Y32">
-        <v>37.90635865010311</v>
+        <v>0.7367118570281113</v>
       </c>
       <c r="Z32">
-        <v>14.35927771021385</v>
+        <v>0.4280893223271458</v>
       </c>
       <c r="AA32">
-        <v>0.5461296743080487</v>
+        <v>0</v>
       </c>
       <c r="AB32">
-        <v>0.6570138256159904</v>
+        <v>10.63777147780311</v>
       </c>
       <c r="AC32">
-        <v>1.087822716140236</v>
+        <v>40.31908502227285</v>
       </c>
       <c r="AD32">
-        <v>0.2588447065233904</v>
+        <v>17.90109725116685</v>
       </c>
       <c r="AE32">
-        <v>1.543112673504828</v>
+        <v>18.99514758230762</v>
       </c>
       <c r="AF32">
-        <v>4.580395373298606</v>
-      </c>
-      <c r="AG32">
-        <v>11.81954658439163</v>
-      </c>
-      <c r="AH32">
-        <v>7.315023351177683</v>
-      </c>
-      <c r="AI32">
-        <v>8.160806622533366</v>
-      </c>
-      <c r="AJ32">
-        <v>2.205956472831867</v>
-      </c>
-      <c r="AK32">
-        <v>8.875147582307621</v>
-      </c>
-      <c r="AL32">
-        <v>21.7290247119722</v>
-      </c>
-      <c r="AM32">
-        <v>24.3160498775426</v>
-      </c>
-      <c r="AN32">
-        <v>9.454981184804078</v>
-      </c>
-      <c r="AO32">
-        <v>0.7367118570281113</v>
-      </c>
-      <c r="AP32">
-        <v>0.4280893223271458</v>
-      </c>
-      <c r="AQ32">
-        <v>0</v>
-      </c>
-      <c r="AR32">
-        <v>10.63777147780311</v>
-      </c>
-      <c r="AS32">
-        <v>40.31908502227285</v>
-      </c>
-      <c r="AT32">
-        <v>17.90109725116685</v>
-      </c>
-      <c r="AU32">
-        <v>18.99514758230762</v>
-      </c>
-      <c r="AV32">
         <v>10.99205305272982</v>
       </c>
     </row>
-    <row r="33" spans="1:48">
+    <row r="33" spans="1:32">
       <c r="A33" s="1">
         <v>42331</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D33">
         <v>202104</v>
@@ -5234,10 +3650,10 @@
         <v>1849300014</v>
       </c>
       <c r="G33" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H33" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I33">
         <v>4831051000</v>
@@ -5246,7 +3662,7 @@
         <v>1559.090909090909</v>
       </c>
       <c r="K33" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L33">
         <v>17568318</v>
@@ -5258,117 +3674,69 @@
         <v>383784</v>
       </c>
       <c r="O33">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P33">
-        <v>0</v>
+        <v>20.22</v>
       </c>
       <c r="Q33">
-        <v>0</v>
+        <v>26.31</v>
       </c>
       <c r="R33">
-        <v>1.01</v>
+        <v>19.15</v>
       </c>
       <c r="S33">
-        <v>19.18</v>
+        <v>0</v>
       </c>
       <c r="T33">
-        <v>20.73</v>
+        <v>0</v>
       </c>
       <c r="U33">
-        <v>59.08</v>
+        <v>0</v>
       </c>
       <c r="V33">
         <v>0</v>
       </c>
       <c r="W33">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="X33">
+        <v>33.27</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+      <c r="AC33">
+        <v>75.13</v>
+      </c>
+      <c r="AD33">
+        <v>20.16</v>
+      </c>
+      <c r="AE33">
         <v>4.67</v>
       </c>
-      <c r="Y33">
-        <v>73.23999999999999</v>
-      </c>
-      <c r="Z33">
-        <v>21.07</v>
-      </c>
-      <c r="AA33">
-        <v>1.01</v>
-      </c>
-      <c r="AB33">
-        <v>0</v>
-      </c>
-      <c r="AC33">
-        <v>0</v>
-      </c>
-      <c r="AD33">
-        <v>0</v>
-      </c>
-      <c r="AE33">
-        <v>0</v>
-      </c>
       <c r="AF33">
-        <v>20.22</v>
-      </c>
-      <c r="AG33">
-        <v>26.31</v>
-      </c>
-      <c r="AH33">
-        <v>19.15</v>
-      </c>
-      <c r="AI33">
-        <v>0</v>
-      </c>
-      <c r="AJ33">
-        <v>0</v>
-      </c>
-      <c r="AK33">
-        <v>0</v>
-      </c>
-      <c r="AL33">
-        <v>0</v>
-      </c>
-      <c r="AM33">
-        <v>1.05</v>
-      </c>
-      <c r="AN33">
-        <v>33.27</v>
-      </c>
-      <c r="AO33">
-        <v>0</v>
-      </c>
-      <c r="AP33">
-        <v>0</v>
-      </c>
-      <c r="AQ33">
-        <v>0</v>
-      </c>
-      <c r="AR33">
-        <v>0</v>
-      </c>
-      <c r="AS33">
-        <v>75.13</v>
-      </c>
-      <c r="AT33">
-        <v>20.16</v>
-      </c>
-      <c r="AU33">
-        <v>4.67</v>
-      </c>
-      <c r="AV33">
         <v>0.03</v>
       </c>
     </row>
-    <row r="34" spans="1:48">
+    <row r="34" spans="1:32">
       <c r="A34" s="1">
         <v>44606</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C34" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D34">
         <v>202105</v>
@@ -5380,10 +3748,10 @@
         <v>6128201787</v>
       </c>
       <c r="G34" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H34" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I34">
         <v>4831051000</v>
@@ -5392,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L34">
         <v>369876435</v>
@@ -5404,117 +3772,69 @@
         <v>56340.66031987814</v>
       </c>
       <c r="O34">
-        <v>81.40340287388138</v>
+        <v>1.132303698990718</v>
       </c>
       <c r="P34">
-        <v>18.59659712611862</v>
+        <v>6.037787979680296</v>
       </c>
       <c r="Q34">
-        <v>4.41376986546872</v>
+        <v>9.272375633338198</v>
       </c>
       <c r="R34">
-        <v>23.93889392061433</v>
+        <v>7.691217225476936</v>
       </c>
       <c r="S34">
-        <v>13.06676695137391</v>
+        <v>14.2385603438889</v>
       </c>
       <c r="T34">
-        <v>9.687500103838733</v>
+        <v>1.420425393848083</v>
       </c>
       <c r="U34">
-        <v>16.64995416066449</v>
+        <v>15.1275589214544</v>
       </c>
       <c r="V34">
-        <v>19.72714650588649</v>
+        <v>18.41579838999476</v>
       </c>
       <c r="W34">
-        <v>12.51600121475703</v>
+        <v>15.88118450287324</v>
       </c>
       <c r="X34">
-        <v>46.09562787248125</v>
+        <v>10.78278791045447</v>
       </c>
       <c r="Y34">
-        <v>36.8381414391809</v>
+        <v>0.6003730653724939</v>
       </c>
       <c r="Z34">
-        <v>13.0454254630739</v>
+        <v>0.3289201540779423</v>
       </c>
       <c r="AA34">
-        <v>0.9036323474622006</v>
+        <v>0</v>
       </c>
       <c r="AB34">
-        <v>0.8384817819496937</v>
+        <v>14.05056277340296</v>
       </c>
       <c r="AC34">
-        <v>1.461407071959045</v>
+        <v>45.21086390442797</v>
       </c>
       <c r="AD34">
-        <v>0.8073494691004037</v>
+        <v>21.22411642047431</v>
       </c>
       <c r="AE34">
-        <v>1.132303698990718</v>
+        <v>14.12358636967505</v>
       </c>
       <c r="AF34">
-        <v>6.037787979680296</v>
-      </c>
-      <c r="AG34">
-        <v>9.272375633338198</v>
-      </c>
-      <c r="AH34">
-        <v>7.691217225476936</v>
-      </c>
-      <c r="AI34">
-        <v>14.2385603438889</v>
-      </c>
-      <c r="AJ34">
-        <v>1.420425393848083</v>
-      </c>
-      <c r="AK34">
-        <v>15.1275589214544</v>
-      </c>
-      <c r="AL34">
-        <v>18.41579838999476</v>
-      </c>
-      <c r="AM34">
-        <v>15.88118450287324</v>
-      </c>
-      <c r="AN34">
-        <v>10.78278791045447</v>
-      </c>
-      <c r="AO34">
-        <v>0.6003730653724939</v>
-      </c>
-      <c r="AP34">
-        <v>0.3289201540779423</v>
-      </c>
-      <c r="AQ34">
-        <v>0</v>
-      </c>
-      <c r="AR34">
-        <v>14.05056277340296</v>
-      </c>
-      <c r="AS34">
-        <v>45.21086390442797</v>
-      </c>
-      <c r="AT34">
-        <v>21.22411642047431</v>
-      </c>
-      <c r="AU34">
-        <v>14.12358636967505</v>
-      </c>
-      <c r="AV34">
         <v>4.471577312569264</v>
       </c>
     </row>
-    <row r="35" spans="1:48">
+    <row r="35" spans="1:32">
       <c r="A35" s="1">
         <v>45145</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C35" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D35">
         <v>202105</v>
@@ -5526,10 +3846,10 @@
         <v>1849300014</v>
       </c>
       <c r="G35" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H35" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I35">
         <v>4831051000</v>
@@ -5538,7 +3858,7 @@
         <v>1559.090909090909</v>
       </c>
       <c r="K35" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L35">
         <v>9886092</v>
@@ -5550,40 +3870,40 @@
         <v>216937</v>
       </c>
       <c r="O35">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P35">
-        <v>0</v>
+        <v>34.16</v>
       </c>
       <c r="Q35">
         <v>0</v>
       </c>
       <c r="R35">
-        <v>17.53</v>
+        <v>32.78</v>
       </c>
       <c r="S35">
-        <v>36.37</v>
+        <v>0.33</v>
       </c>
       <c r="T35">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="U35">
-        <v>34.32</v>
+        <v>3.59</v>
       </c>
       <c r="V35">
-        <v>11.62</v>
+        <v>0</v>
       </c>
       <c r="W35">
-        <v>0</v>
+        <v>21.97</v>
       </c>
       <c r="X35">
         <v>7.17</v>
       </c>
       <c r="Y35">
-        <v>92.5</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AA35">
         <v>0</v>
@@ -5592,75 +3912,27 @@
         <v>0</v>
       </c>
       <c r="AC35">
-        <v>0</v>
+        <v>38.07</v>
       </c>
       <c r="AD35">
-        <v>0</v>
+        <v>50.31</v>
       </c>
       <c r="AE35">
-        <v>0</v>
+        <v>11.56</v>
       </c>
       <c r="AF35">
-        <v>34.16</v>
-      </c>
-      <c r="AG35">
-        <v>0</v>
-      </c>
-      <c r="AH35">
-        <v>32.78</v>
-      </c>
-      <c r="AI35">
-        <v>0.33</v>
-      </c>
-      <c r="AJ35">
-        <v>0</v>
-      </c>
-      <c r="AK35">
-        <v>3.59</v>
-      </c>
-      <c r="AL35">
-        <v>0</v>
-      </c>
-      <c r="AM35">
-        <v>21.97</v>
-      </c>
-      <c r="AN35">
-        <v>7.17</v>
-      </c>
-      <c r="AO35">
-        <v>0</v>
-      </c>
-      <c r="AP35">
-        <v>0</v>
-      </c>
-      <c r="AQ35">
-        <v>0</v>
-      </c>
-      <c r="AR35">
-        <v>0</v>
-      </c>
-      <c r="AS35">
-        <v>38.07</v>
-      </c>
-      <c r="AT35">
-        <v>50.31</v>
-      </c>
-      <c r="AU35">
-        <v>11.56</v>
-      </c>
-      <c r="AV35">
         <v>0.06</v>
       </c>
     </row>
-    <row r="36" spans="1:48">
+    <row r="36" spans="1:32">
       <c r="A36" s="1">
         <v>47419</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D36">
         <v>202106</v>
@@ -5672,10 +3944,10 @@
         <v>6128201787</v>
       </c>
       <c r="G36" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H36" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I36">
         <v>4831051000</v>
@@ -5684,7 +3956,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L36">
         <v>337704077</v>
@@ -5696,117 +3968,69 @@
         <v>47840.21490296076</v>
       </c>
       <c r="O36">
-        <v>91.25977384845135</v>
+        <v>1.092650082219765</v>
       </c>
       <c r="P36">
-        <v>8.740226151548653</v>
+        <v>8.012560649630535</v>
       </c>
       <c r="Q36">
-        <v>1.802228618519166</v>
+        <v>9.012270764738204</v>
       </c>
       <c r="R36">
-        <v>17.01149054265045</v>
+        <v>9.337191611696177</v>
       </c>
       <c r="S36">
-        <v>21.8603330591416</v>
+        <v>9.826215049426246</v>
       </c>
       <c r="T36">
-        <v>15.76186986013201</v>
+        <v>1.053363486873154</v>
       </c>
       <c r="U36">
-        <v>19.1352549341298</v>
+        <v>9.063031455761786</v>
       </c>
       <c r="V36">
-        <v>17.49089226983185</v>
+        <v>19.60587787816373</v>
       </c>
       <c r="W36">
-        <v>6.937997533029488</v>
+        <v>16.05744346249038</v>
       </c>
       <c r="X36">
-        <v>42.65019325609148</v>
+        <v>16.93939555900002</v>
       </c>
       <c r="Y36">
-        <v>38.0195548931143</v>
+        <v>0.4276613897971981</v>
       </c>
       <c r="Z36">
-        <v>14.65202816621607</v>
+        <v>1.351135896384218</v>
       </c>
       <c r="AA36">
-        <v>2.23038240157225</v>
+        <v>0</v>
       </c>
       <c r="AB36">
-        <v>1.13695004120427</v>
+        <v>13.08541015612316</v>
       </c>
       <c r="AC36">
-        <v>0.6553011924697609</v>
+        <v>36.63149259871091</v>
       </c>
       <c r="AD36">
-        <v>0.6555900493318594</v>
+        <v>22.91717413669246</v>
       </c>
       <c r="AE36">
-        <v>1.092650082219765</v>
+        <v>22.5380592103127</v>
       </c>
       <c r="AF36">
-        <v>8.012560649630535</v>
-      </c>
-      <c r="AG36">
-        <v>9.012270764738204</v>
-      </c>
-      <c r="AH36">
-        <v>9.337191611696177</v>
-      </c>
-      <c r="AI36">
-        <v>9.826215049426246</v>
-      </c>
-      <c r="AJ36">
-        <v>1.053363486873154</v>
-      </c>
-      <c r="AK36">
-        <v>9.063031455761786</v>
-      </c>
-      <c r="AL36">
-        <v>19.60587787816373</v>
-      </c>
-      <c r="AM36">
-        <v>16.05744346249038</v>
-      </c>
-      <c r="AN36">
-        <v>16.93939555900002</v>
-      </c>
-      <c r="AO36">
-        <v>0.4276613897971981</v>
-      </c>
-      <c r="AP36">
-        <v>1.351135896384218</v>
-      </c>
-      <c r="AQ36">
-        <v>0</v>
-      </c>
-      <c r="AR36">
-        <v>13.08541015612316</v>
-      </c>
-      <c r="AS36">
-        <v>36.63149259871091</v>
-      </c>
-      <c r="AT36">
-        <v>22.91717413669246</v>
-      </c>
-      <c r="AU36">
-        <v>22.5380592103127</v>
-      </c>
-      <c r="AV36">
         <v>3.058999794544974</v>
       </c>
     </row>
-    <row r="37" spans="1:48">
+    <row r="37" spans="1:32">
       <c r="A37" s="1">
         <v>47959</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C37" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D37">
         <v>202106</v>
@@ -5818,10 +4042,10 @@
         <v>1849300014</v>
       </c>
       <c r="G37" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H37" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I37">
         <v>4831051000</v>
@@ -5830,7 +4054,7 @@
         <v>1559.090909090909</v>
       </c>
       <c r="K37" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L37">
         <v>11498401</v>
@@ -5842,40 +4066,40 @@
         <v>380372</v>
       </c>
       <c r="O37">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P37">
-        <v>0</v>
+        <v>30.06</v>
       </c>
       <c r="Q37">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="R37">
-        <v>37.13</v>
+        <v>28.98</v>
       </c>
       <c r="S37">
-        <v>28.98</v>
+        <v>0</v>
       </c>
       <c r="T37">
         <v>0</v>
       </c>
       <c r="U37">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
         <v>33.06</v>
-      </c>
-      <c r="W37">
-        <v>0</v>
       </c>
       <c r="X37">
         <v>7.07</v>
       </c>
       <c r="Y37">
-        <v>92.05</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="AA37">
         <v>0</v>
@@ -5884,75 +4108,27 @@
         <v>0</v>
       </c>
       <c r="AC37">
-        <v>0</v>
+        <v>59.04</v>
       </c>
       <c r="AD37">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="AE37">
-        <v>0</v>
+        <v>40.08</v>
       </c>
       <c r="AF37">
-        <v>30.06</v>
-      </c>
-      <c r="AG37">
-        <v>0.83</v>
-      </c>
-      <c r="AH37">
-        <v>28.98</v>
-      </c>
-      <c r="AI37">
-        <v>0</v>
-      </c>
-      <c r="AJ37">
-        <v>0</v>
-      </c>
-      <c r="AK37">
-        <v>0</v>
-      </c>
-      <c r="AL37">
-        <v>0</v>
-      </c>
-      <c r="AM37">
-        <v>33.06</v>
-      </c>
-      <c r="AN37">
-        <v>7.07</v>
-      </c>
-      <c r="AO37">
-        <v>0</v>
-      </c>
-      <c r="AP37">
-        <v>0</v>
-      </c>
-      <c r="AQ37">
-        <v>0</v>
-      </c>
-      <c r="AR37">
-        <v>0</v>
-      </c>
-      <c r="AS37">
-        <v>59.04</v>
-      </c>
-      <c r="AT37">
-        <v>0.83</v>
-      </c>
-      <c r="AU37">
-        <v>40.08</v>
-      </c>
-      <c r="AV37">
         <v>0.05</v>
       </c>
     </row>
-    <row r="38" spans="1:48">
+    <row r="38" spans="1:32">
       <c r="A38" s="1">
         <v>50244</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C38" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D38">
         <v>202107</v>
@@ -5964,10 +4140,10 @@
         <v>6128201787</v>
       </c>
       <c r="G38" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H38" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I38">
         <v>4831051000</v>
@@ -5976,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L38">
         <v>426745550</v>
@@ -5988,117 +4164,69 @@
         <v>63100.03696584356</v>
       </c>
       <c r="O38">
-        <v>85.48303682751936</v>
+        <v>0.954773984450453</v>
       </c>
       <c r="P38">
-        <v>14.51696317248065</v>
+        <v>4.369585876759582</v>
       </c>
       <c r="Q38">
-        <v>3.107034139945923</v>
+        <v>9.860724219408965</v>
       </c>
       <c r="R38">
-        <v>18.13763780247972</v>
+        <v>9.397512397352475</v>
       </c>
       <c r="S38">
-        <v>11.07010402707187</v>
+        <v>5.101976285634378</v>
       </c>
       <c r="T38">
-        <v>18.13882374949194</v>
+        <v>1.952205717833496</v>
       </c>
       <c r="U38">
-        <v>16.91780111546564</v>
+        <v>15.24381548459029</v>
       </c>
       <c r="V38">
-        <v>21.21867013301017</v>
+        <v>21.75080003512632</v>
       </c>
       <c r="W38">
-        <v>11.40992903253473</v>
+        <v>17.20972781169013</v>
       </c>
       <c r="X38">
-        <v>43.64512969993477</v>
+        <v>14.14893262481589</v>
       </c>
       <c r="Y38">
-        <v>36.45334207543582</v>
+        <v>0.2685301831266899</v>
       </c>
       <c r="Z38">
-        <v>16.85019152434044</v>
+        <v>0.3420141934930546</v>
       </c>
       <c r="AA38">
-        <v>0.4607359009601857</v>
+        <v>0</v>
       </c>
       <c r="AB38">
-        <v>0.7168115410459464</v>
+        <v>10.52303682751935</v>
       </c>
       <c r="AC38">
-        <v>1.227327706311173</v>
+        <v>39.24601150591963</v>
       </c>
       <c r="AD38">
-        <v>0.6365159896336353</v>
+        <v>19.55928261389018</v>
       </c>
       <c r="AE38">
-        <v>0.954773984450453</v>
+        <v>20.93661803165845</v>
       </c>
       <c r="AF38">
-        <v>4.369585876759582</v>
-      </c>
-      <c r="AG38">
-        <v>9.860724219408965</v>
-      </c>
-      <c r="AH38">
-        <v>9.397512397352475</v>
-      </c>
-      <c r="AI38">
-        <v>5.101976285634378</v>
-      </c>
-      <c r="AJ38">
-        <v>1.952205717833496</v>
-      </c>
-      <c r="AK38">
-        <v>15.24381548459029</v>
-      </c>
-      <c r="AL38">
-        <v>21.75080003512632</v>
-      </c>
-      <c r="AM38">
-        <v>17.20972781169013</v>
-      </c>
-      <c r="AN38">
-        <v>14.14893262481589</v>
-      </c>
-      <c r="AO38">
-        <v>0.2685301831266899</v>
-      </c>
-      <c r="AP38">
-        <v>0.3420141934930546</v>
-      </c>
-      <c r="AQ38">
-        <v>0</v>
-      </c>
-      <c r="AR38">
-        <v>10.52303682751935</v>
-      </c>
-      <c r="AS38">
-        <v>39.24601150591963</v>
-      </c>
-      <c r="AT38">
-        <v>19.55928261389018</v>
-      </c>
-      <c r="AU38">
-        <v>20.93661803165845</v>
-      </c>
-      <c r="AV38">
         <v>9.124561082054635</v>
       </c>
     </row>
-    <row r="39" spans="1:48">
+    <row r="39" spans="1:32">
       <c r="A39" s="1">
         <v>50782</v>
       </c>
       <c r="B39" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C39" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D39">
         <v>202107</v>
@@ -6110,10 +4238,10 @@
         <v>1849300014</v>
       </c>
       <c r="G39" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H39" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I39">
         <v>4831051000</v>
@@ -6122,7 +4250,7 @@
         <v>1559.090909090909</v>
       </c>
       <c r="K39" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L39">
         <v>11189077</v>
@@ -6134,117 +4262,69 @@
         <v>371182</v>
       </c>
       <c r="O39">
-        <v>100</v>
+        <v>1.43</v>
       </c>
       <c r="P39">
-        <v>0</v>
+        <v>30.06</v>
       </c>
       <c r="Q39">
         <v>0</v>
       </c>
       <c r="R39">
-        <v>91.68000000000001</v>
+        <v>28.74</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>8.27</v>
+        <v>0</v>
       </c>
       <c r="U39">
         <v>0</v>
       </c>
       <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>32.93</v>
+      </c>
+      <c r="X39">
+        <v>6.85</v>
+      </c>
+      <c r="Y39">
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+      <c r="AA39">
+        <v>0</v>
+      </c>
+      <c r="AB39">
+        <v>1.43</v>
+      </c>
+      <c r="AC39">
+        <v>30.06</v>
+      </c>
+      <c r="AD39">
+        <v>28.74</v>
+      </c>
+      <c r="AE39">
+        <v>39.73</v>
+      </c>
+      <c r="AF39">
         <v>0.05</v>
       </c>
-      <c r="W39">
-        <v>0</v>
-      </c>
-      <c r="X39">
-        <v>35.59</v>
-      </c>
-      <c r="Y39">
-        <v>64.41</v>
-      </c>
-      <c r="Z39">
-        <v>0</v>
-      </c>
-      <c r="AA39">
-        <v>0</v>
-      </c>
-      <c r="AB39">
-        <v>0</v>
-      </c>
-      <c r="AC39">
-        <v>0</v>
-      </c>
-      <c r="AD39">
-        <v>0</v>
-      </c>
-      <c r="AE39">
-        <v>1.43</v>
-      </c>
-      <c r="AF39">
-        <v>30.06</v>
-      </c>
-      <c r="AG39">
-        <v>0</v>
-      </c>
-      <c r="AH39">
-        <v>28.74</v>
-      </c>
-      <c r="AI39">
-        <v>0</v>
-      </c>
-      <c r="AJ39">
-        <v>0</v>
-      </c>
-      <c r="AK39">
-        <v>0</v>
-      </c>
-      <c r="AL39">
-        <v>0</v>
-      </c>
-      <c r="AM39">
-        <v>32.93</v>
-      </c>
-      <c r="AN39">
-        <v>6.85</v>
-      </c>
-      <c r="AO39">
-        <v>0</v>
-      </c>
-      <c r="AP39">
-        <v>0</v>
-      </c>
-      <c r="AQ39">
-        <v>0</v>
-      </c>
-      <c r="AR39">
-        <v>1.43</v>
-      </c>
-      <c r="AS39">
-        <v>30.06</v>
-      </c>
-      <c r="AT39">
-        <v>28.74</v>
-      </c>
-      <c r="AU39">
-        <v>39.73</v>
-      </c>
-      <c r="AV39">
-        <v>0.05</v>
-      </c>
     </row>
-    <row r="40" spans="1:48">
+    <row r="40" spans="1:32">
       <c r="A40" s="1">
         <v>53069</v>
       </c>
       <c r="B40" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C40" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D40">
         <v>202108</v>
@@ -6256,10 +4336,10 @@
         <v>6128201787</v>
       </c>
       <c r="G40" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H40" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I40">
         <v>4831051000</v>
@@ -6268,7 +4348,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L40">
         <v>404150414</v>
@@ -6280,117 +4360,69 @@
         <v>56445.58854748603</v>
       </c>
       <c r="O40">
-        <v>87.20153052482088</v>
+        <v>1.824918314892534</v>
       </c>
       <c r="P40">
-        <v>12.79846947517911</v>
+        <v>5.666567018436854</v>
       </c>
       <c r="Q40">
-        <v>1.842847886529692</v>
+        <v>12.3540632680881</v>
       </c>
       <c r="R40">
-        <v>16.75178427801882</v>
+        <v>8.128857605673517</v>
       </c>
       <c r="S40">
-        <v>20.30388369930013</v>
+        <v>6.059436902123277</v>
       </c>
       <c r="T40">
-        <v>14.75678137872698</v>
+        <v>1.449426502133931</v>
       </c>
       <c r="U40">
-        <v>20.55201363970395</v>
+        <v>10.0349021163195</v>
       </c>
       <c r="V40">
-        <v>17.23880081701463</v>
+        <v>24.10871623261531</v>
       </c>
       <c r="W40">
-        <v>8.563809514890167</v>
+        <v>19.15534003971106</v>
       </c>
       <c r="X40">
-        <v>49.49766762549945</v>
+        <v>11.20781139291373</v>
       </c>
       <c r="Y40">
-        <v>35.78961766808929</v>
+        <v>0.2788969985813252</v>
       </c>
       <c r="Z40">
-        <v>10.40845327660607</v>
+        <v>0.5478333900704602</v>
       </c>
       <c r="AA40">
-        <v>1.004102660995913</v>
+        <v>0</v>
       </c>
       <c r="AB40">
-        <v>1.253034451079394</v>
+        <v>10.7610856056676</v>
       </c>
       <c r="AC40">
-        <v>1.011221180142104</v>
+        <v>39.23574096455089</v>
       </c>
       <c r="AD40">
-        <v>1.03590313758778</v>
+        <v>19.48381531347386</v>
       </c>
       <c r="AE40">
-        <v>1.824918314892534</v>
+        <v>25.71469235743502</v>
       </c>
       <c r="AF40">
-        <v>5.666567018436854</v>
-      </c>
-      <c r="AG40">
-        <v>12.3540632680881</v>
-      </c>
-      <c r="AH40">
-        <v>8.128857605673517</v>
-      </c>
-      <c r="AI40">
-        <v>6.059436902123277</v>
-      </c>
-      <c r="AJ40">
-        <v>1.449426502133931</v>
-      </c>
-      <c r="AK40">
-        <v>10.0349021163195</v>
-      </c>
-      <c r="AL40">
-        <v>24.10871623261531</v>
-      </c>
-      <c r="AM40">
-        <v>19.15534003971106</v>
-      </c>
-      <c r="AN40">
-        <v>11.20781139291373</v>
-      </c>
-      <c r="AO40">
-        <v>0.2788969985813252</v>
-      </c>
-      <c r="AP40">
-        <v>0.5478333900704602</v>
-      </c>
-      <c r="AQ40">
-        <v>0</v>
-      </c>
-      <c r="AR40">
-        <v>10.7610856056676</v>
-      </c>
-      <c r="AS40">
-        <v>39.23574096455089</v>
-      </c>
-      <c r="AT40">
-        <v>19.48381531347386</v>
-      </c>
-      <c r="AU40">
-        <v>25.71469235743502</v>
-      </c>
-      <c r="AV40">
         <v>3.987895977313041</v>
       </c>
     </row>
-    <row r="41" spans="1:48">
+    <row r="41" spans="1:32">
       <c r="A41" s="1">
         <v>53602</v>
       </c>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C41" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D41">
         <v>202108</v>
@@ -6402,10 +4434,10 @@
         <v>1849300014</v>
       </c>
       <c r="G41" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H41" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I41">
         <v>4831051000</v>
@@ -6414,7 +4446,7 @@
         <v>1559.090909090909</v>
       </c>
       <c r="K41" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L41">
         <v>12623614</v>
@@ -6426,40 +4458,40 @@
         <v>483600</v>
       </c>
       <c r="O41">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P41">
-        <v>0</v>
+        <v>28.47</v>
       </c>
       <c r="Q41">
         <v>0</v>
       </c>
       <c r="R41">
-        <v>6.67</v>
+        <v>27.35</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>31.26</v>
+        <v>0</v>
       </c>
       <c r="U41">
-        <v>62.07</v>
+        <v>0</v>
       </c>
       <c r="V41">
         <v>0</v>
       </c>
       <c r="W41">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="X41">
         <v>6.67</v>
       </c>
       <c r="Y41">
-        <v>62.07</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>31.26</v>
+        <v>0</v>
       </c>
       <c r="AA41">
         <v>0</v>
@@ -6468,75 +4500,27 @@
         <v>0</v>
       </c>
       <c r="AC41">
-        <v>0</v>
+        <v>34.71</v>
       </c>
       <c r="AD41">
-        <v>0</v>
+        <v>27.35</v>
       </c>
       <c r="AE41">
-        <v>0</v>
+        <v>37.93</v>
       </c>
       <c r="AF41">
-        <v>28.47</v>
-      </c>
-      <c r="AG41">
-        <v>0</v>
-      </c>
-      <c r="AH41">
-        <v>27.35</v>
-      </c>
-      <c r="AI41">
-        <v>0</v>
-      </c>
-      <c r="AJ41">
-        <v>0</v>
-      </c>
-      <c r="AK41">
-        <v>0</v>
-      </c>
-      <c r="AL41">
-        <v>0</v>
-      </c>
-      <c r="AM41">
-        <v>37.5</v>
-      </c>
-      <c r="AN41">
-        <v>6.67</v>
-      </c>
-      <c r="AO41">
-        <v>0</v>
-      </c>
-      <c r="AP41">
-        <v>0</v>
-      </c>
-      <c r="AQ41">
-        <v>0</v>
-      </c>
-      <c r="AR41">
-        <v>0</v>
-      </c>
-      <c r="AS41">
-        <v>34.71</v>
-      </c>
-      <c r="AT41">
-        <v>27.35</v>
-      </c>
-      <c r="AU41">
-        <v>37.93</v>
-      </c>
-      <c r="AV41">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:48">
+    <row r="42" spans="1:32">
       <c r="A42" s="1">
         <v>55902</v>
       </c>
       <c r="B42" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C42" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D42">
         <v>202109</v>
@@ -6548,10 +4532,10 @@
         <v>6128201787</v>
       </c>
       <c r="G42" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H42" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I42">
         <v>4831051000</v>
@@ -6560,7 +4544,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L42">
         <v>382783200</v>
@@ -6572,117 +4556,69 @@
         <v>57260.01495886312</v>
       </c>
       <c r="O42">
-        <v>79.79424903412689</v>
+        <v>1.322556059591957</v>
       </c>
       <c r="P42">
-        <v>20.20575096587311</v>
+        <v>6.064190773654643</v>
       </c>
       <c r="Q42">
-        <v>1.293701643489056</v>
+        <v>7.171344084536625</v>
       </c>
       <c r="R42">
-        <v>21.91867150400018</v>
+        <v>9.625402748709973</v>
       </c>
       <c r="S42">
-        <v>11.84756046135254</v>
+        <v>6.076066660292301</v>
       </c>
       <c r="T42">
-        <v>20.95315290718088</v>
+        <v>2.169510869834413</v>
       </c>
       <c r="U42">
-        <v>18.80800080740221</v>
+        <v>15.36155206153248</v>
       </c>
       <c r="V42">
-        <v>13.84163471406269</v>
+        <v>30.37947632858495</v>
       </c>
       <c r="W42">
-        <v>11.34724476693334</v>
+        <v>13.57383375297035</v>
       </c>
       <c r="X42">
-        <v>53.95701918289517</v>
+        <v>8.246099855871417</v>
       </c>
       <c r="Y42">
-        <v>31.02550166261215</v>
+        <v>0.1893692839967898</v>
       </c>
       <c r="Z42">
-        <v>11.08429983674832</v>
+        <v>2.181460605481119</v>
       </c>
       <c r="AA42">
-        <v>1.35941941378305</v>
+        <v>0</v>
       </c>
       <c r="AB42">
-        <v>1.230548063473005</v>
+        <v>9.61898854408971</v>
       </c>
       <c r="AC42">
-        <v>0.8648716194441134</v>
+        <v>37.32975882742503</v>
       </c>
       <c r="AD42">
-        <v>0.4684398077815327</v>
+        <v>17.20741887551491</v>
       </c>
       <c r="AE42">
-        <v>1.322556059591957</v>
+        <v>29.55150938959704</v>
       </c>
       <c r="AF42">
-        <v>6.064190773654643</v>
-      </c>
-      <c r="AG42">
-        <v>7.171344084536625</v>
-      </c>
-      <c r="AH42">
-        <v>9.625402748709973</v>
-      </c>
-      <c r="AI42">
-        <v>6.076066660292301</v>
-      </c>
-      <c r="AJ42">
-        <v>2.169510869834413</v>
-      </c>
-      <c r="AK42">
-        <v>15.36155206153248</v>
-      </c>
-      <c r="AL42">
-        <v>30.37947632858495</v>
-      </c>
-      <c r="AM42">
-        <v>13.57383375297035</v>
-      </c>
-      <c r="AN42">
-        <v>8.246099855871417</v>
-      </c>
-      <c r="AO42">
-        <v>0.1893692839967898</v>
-      </c>
-      <c r="AP42">
-        <v>2.181460605481119</v>
-      </c>
-      <c r="AQ42">
-        <v>0</v>
-      </c>
-      <c r="AR42">
-        <v>9.61898854408971</v>
-      </c>
-      <c r="AS42">
-        <v>37.32975882742503</v>
-      </c>
-      <c r="AT42">
-        <v>17.20741887551491</v>
-      </c>
-      <c r="AU42">
-        <v>29.55150938959704</v>
-      </c>
-      <c r="AV42">
         <v>3.911560865053639</v>
       </c>
     </row>
-    <row r="43" spans="1:48">
+    <row r="43" spans="1:32">
       <c r="A43" s="1">
         <v>58135</v>
       </c>
       <c r="B43" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C43" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D43">
         <v>202109</v>
@@ -6694,10 +4630,10 @@
         <v>1759201609</v>
       </c>
       <c r="G43" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H43" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I43">
         <v>4831051000</v>
@@ -6706,7 +4642,7 @@
         <v>1559.090909090909</v>
       </c>
       <c r="K43" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L43">
         <v>12552964</v>
@@ -6718,16 +4654,16 @@
         <v>396488</v>
       </c>
       <c r="O43">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P43">
-        <v>0</v>
+        <v>28.73</v>
       </c>
       <c r="Q43">
         <v>0</v>
       </c>
       <c r="R43">
-        <v>28.73</v>
+        <v>27.8</v>
       </c>
       <c r="S43">
         <v>0</v>
@@ -6736,99 +4672,51 @@
         <v>0</v>
       </c>
       <c r="U43">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="V43">
-        <v>70.43000000000001</v>
+        <v>0</v>
       </c>
       <c r="W43">
-        <v>0</v>
+        <v>36.68</v>
       </c>
       <c r="X43">
-        <v>27.8</v>
+        <v>6.78</v>
       </c>
       <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>0</v>
+      </c>
+      <c r="AB43">
+        <v>0</v>
+      </c>
+      <c r="AC43">
+        <v>32.91</v>
+      </c>
+      <c r="AD43">
+        <v>28.64</v>
+      </c>
+      <c r="AE43">
         <v>38.45</v>
       </c>
-      <c r="Z43">
-        <v>33.75</v>
-      </c>
-      <c r="AA43">
-        <v>0</v>
-      </c>
-      <c r="AB43">
-        <v>0</v>
-      </c>
-      <c r="AC43">
-        <v>0</v>
-      </c>
-      <c r="AD43">
-        <v>0</v>
-      </c>
-      <c r="AE43">
-        <v>0</v>
-      </c>
       <c r="AF43">
-        <v>28.73</v>
-      </c>
-      <c r="AG43">
-        <v>0</v>
-      </c>
-      <c r="AH43">
-        <v>27.8</v>
-      </c>
-      <c r="AI43">
-        <v>0</v>
-      </c>
-      <c r="AJ43">
-        <v>0</v>
-      </c>
-      <c r="AK43">
-        <v>0</v>
-      </c>
-      <c r="AL43">
-        <v>0</v>
-      </c>
-      <c r="AM43">
-        <v>36.68</v>
-      </c>
-      <c r="AN43">
-        <v>6.78</v>
-      </c>
-      <c r="AO43">
-        <v>0</v>
-      </c>
-      <c r="AP43">
-        <v>0</v>
-      </c>
-      <c r="AQ43">
-        <v>0</v>
-      </c>
-      <c r="AR43">
-        <v>0</v>
-      </c>
-      <c r="AS43">
-        <v>32.91</v>
-      </c>
-      <c r="AT43">
-        <v>28.64</v>
-      </c>
-      <c r="AU43">
-        <v>38.45</v>
-      </c>
-      <c r="AV43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:48">
+    <row r="44" spans="1:32">
       <c r="A44" s="1">
         <v>58729</v>
       </c>
       <c r="B44" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C44" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D44">
         <v>202110</v>
@@ -6840,10 +4728,10 @@
         <v>6128201787</v>
       </c>
       <c r="G44" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H44" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I44">
         <v>4831051000</v>
@@ -6852,7 +4740,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L44">
         <v>442050049</v>
@@ -6864,117 +4752,69 @@
         <v>59471.28333109108</v>
       </c>
       <c r="O44">
-        <v>84.08671998199461</v>
+        <v>2.571510844329756</v>
       </c>
       <c r="P44">
-        <v>15.91328001800538</v>
+        <v>5.727040731602769</v>
       </c>
       <c r="Q44">
-        <v>4.486803808588652</v>
+        <v>9.808378443093442</v>
       </c>
       <c r="R44">
-        <v>17.97561919351806</v>
+        <v>4.950000000000001</v>
       </c>
       <c r="S44">
-        <v>17.02073765502512</v>
+        <v>19.23502050696526</v>
       </c>
       <c r="T44">
-        <v>9.814594953251548</v>
+        <v>0.7818826260779352</v>
       </c>
       <c r="U44">
-        <v>17.18972617279362</v>
+        <v>7.618975759733486</v>
       </c>
       <c r="V44">
-        <v>25.12978722314314</v>
+        <v>19.5308128333224</v>
       </c>
       <c r="W44">
-        <v>8.392668573417577</v>
+        <v>13.72069527118184</v>
       </c>
       <c r="X44">
-        <v>49.18349964442601</v>
+        <v>16.04574540395538</v>
       </c>
       <c r="Y44">
-        <v>37.9552829460494</v>
+        <v>0.4074407692464705</v>
       </c>
       <c r="Z44">
-        <v>8.92833605925016</v>
+        <v>0.8324343902289669</v>
       </c>
       <c r="AA44">
-        <v>0.6397858532303884</v>
+        <v>0</v>
       </c>
       <c r="AB44">
-        <v>0.6232699997958828</v>
+        <v>14.28457080709429</v>
       </c>
       <c r="AC44">
-        <v>2.252509568526255</v>
+        <v>36.61356069477554</v>
       </c>
       <c r="AD44">
-        <v>0.4173783489841894</v>
+        <v>20.41190540232244</v>
       </c>
       <c r="AE44">
-        <v>2.571510844329756</v>
+        <v>19.41567022565809</v>
       </c>
       <c r="AF44">
-        <v>5.727040731602769</v>
-      </c>
-      <c r="AG44">
-        <v>9.808378443093442</v>
-      </c>
-      <c r="AH44">
-        <v>4.950000000000001</v>
-      </c>
-      <c r="AI44">
-        <v>19.23502050696526</v>
-      </c>
-      <c r="AJ44">
-        <v>0.7818826260779352</v>
-      </c>
-      <c r="AK44">
-        <v>7.618975759733486</v>
-      </c>
-      <c r="AL44">
-        <v>19.5308128333224</v>
-      </c>
-      <c r="AM44">
-        <v>13.72069527118184</v>
-      </c>
-      <c r="AN44">
-        <v>16.04574540395538</v>
-      </c>
-      <c r="AO44">
-        <v>0.4074407692464705</v>
-      </c>
-      <c r="AP44">
-        <v>0.8324343902289669</v>
-      </c>
-      <c r="AQ44">
-        <v>0</v>
-      </c>
-      <c r="AR44">
-        <v>14.28457080709429</v>
-      </c>
-      <c r="AS44">
-        <v>36.61356069477554</v>
-      </c>
-      <c r="AT44">
-        <v>20.41190540232244</v>
-      </c>
-      <c r="AU44">
-        <v>19.41567022565809</v>
-      </c>
-      <c r="AV44">
         <v>8.034355290411922</v>
       </c>
     </row>
-    <row r="45" spans="1:48">
+    <row r="45" spans="1:32">
       <c r="A45" s="1">
         <v>60965</v>
       </c>
       <c r="B45" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C45" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D45">
         <v>202110</v>
@@ -6986,10 +4826,10 @@
         <v>1759201609</v>
       </c>
       <c r="G45" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H45" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I45">
         <v>4831051000</v>
@@ -6998,7 +4838,7 @@
         <v>1559.090909090909</v>
       </c>
       <c r="K45" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L45">
         <v>14972953</v>
@@ -7010,19 +4850,19 @@
         <v>569414</v>
       </c>
       <c r="O45">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P45">
-        <v>0</v>
+        <v>23.31</v>
       </c>
       <c r="Q45">
-        <v>0</v>
+        <v>35.12</v>
       </c>
       <c r="R45">
-        <v>0</v>
+        <v>22.48</v>
       </c>
       <c r="S45">
-        <v>25.78</v>
+        <v>0</v>
       </c>
       <c r="T45">
         <v>0</v>
@@ -7031,19 +4871,19 @@
         <v>0</v>
       </c>
       <c r="V45">
-        <v>74.22</v>
+        <v>16.62</v>
       </c>
       <c r="W45">
-        <v>0</v>
+        <v>2.47</v>
       </c>
       <c r="X45">
-        <v>23.31</v>
+        <v>0</v>
       </c>
       <c r="Y45">
-        <v>22.48</v>
+        <v>0</v>
       </c>
       <c r="Z45">
-        <v>54.21</v>
+        <v>0</v>
       </c>
       <c r="AA45">
         <v>0</v>
@@ -7052,75 +4892,27 @@
         <v>0</v>
       </c>
       <c r="AC45">
-        <v>0</v>
+        <v>60.9</v>
       </c>
       <c r="AD45">
-        <v>0</v>
+        <v>39.1</v>
       </c>
       <c r="AE45">
         <v>0</v>
       </c>
       <c r="AF45">
-        <v>23.31</v>
-      </c>
-      <c r="AG45">
-        <v>35.12</v>
-      </c>
-      <c r="AH45">
-        <v>22.48</v>
-      </c>
-      <c r="AI45">
-        <v>0</v>
-      </c>
-      <c r="AJ45">
-        <v>0</v>
-      </c>
-      <c r="AK45">
-        <v>0</v>
-      </c>
-      <c r="AL45">
-        <v>16.62</v>
-      </c>
-      <c r="AM45">
-        <v>2.47</v>
-      </c>
-      <c r="AN45">
-        <v>0</v>
-      </c>
-      <c r="AO45">
-        <v>0</v>
-      </c>
-      <c r="AP45">
-        <v>0</v>
-      </c>
-      <c r="AQ45">
-        <v>0</v>
-      </c>
-      <c r="AR45">
-        <v>0</v>
-      </c>
-      <c r="AS45">
-        <v>60.9</v>
-      </c>
-      <c r="AT45">
-        <v>39.1</v>
-      </c>
-      <c r="AU45">
-        <v>0</v>
-      </c>
-      <c r="AV45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:48">
+    <row r="46" spans="1:32">
       <c r="A46" s="1">
         <v>61566</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C46" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D46">
         <v>202111</v>
@@ -7132,10 +4924,10 @@
         <v>6128201787</v>
       </c>
       <c r="G46" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H46" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I46">
         <v>4831051000</v>
@@ -7144,7 +4936,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L46">
         <v>473074672</v>
@@ -7156,117 +4948,69 @@
         <v>60580.69816877961</v>
       </c>
       <c r="O46">
-        <v>89.47564182654024</v>
+        <v>1.566312940549901</v>
       </c>
       <c r="P46">
-        <v>10.52435817345977</v>
+        <v>9.652364850342275</v>
       </c>
       <c r="Q46">
-        <v>3.872383387458122</v>
+        <v>14.45495810259739</v>
       </c>
       <c r="R46">
-        <v>22.90699666449274</v>
+        <v>9.788548757309078</v>
       </c>
       <c r="S46">
-        <v>22.51261030757529</v>
+        <v>5.01740526594922</v>
       </c>
       <c r="T46">
-        <v>7.949774561678501</v>
+        <v>1.596754170851066</v>
       </c>
       <c r="U46">
-        <v>14.89420763916949</v>
+        <v>10.965107155092</v>
       </c>
       <c r="V46">
-        <v>21.21208528246889</v>
+        <v>24.95249388392537</v>
       </c>
       <c r="W46">
-        <v>6.651974786001648</v>
+        <v>10.14287430192416</v>
       </c>
       <c r="X46">
-        <v>55.84118132115938</v>
+        <v>11.87311531377017</v>
       </c>
       <c r="Y46">
-        <v>31.38022840191284</v>
+        <v>0.2990211346592658</v>
       </c>
       <c r="Z46">
-        <v>10.31360771003187</v>
+        <v>0.0996737115530886</v>
       </c>
       <c r="AA46">
-        <v>0.5639681091191456</v>
+        <v>0</v>
       </c>
       <c r="AB46">
-        <v>0.4306540586894916</v>
+        <v>10.0956433083359</v>
       </c>
       <c r="AC46">
-        <v>1.111567666340844</v>
+        <v>41.55915461362937</v>
       </c>
       <c r="AD46">
-        <v>0.3588253615911189</v>
+        <v>21.85034038017575</v>
       </c>
       <c r="AE46">
-        <v>1.566312940549901</v>
+        <v>19.63861253320279</v>
       </c>
       <c r="AF46">
-        <v>9.652364850342275</v>
-      </c>
-      <c r="AG46">
-        <v>14.45495810259739</v>
-      </c>
-      <c r="AH46">
-        <v>9.788548757309078</v>
-      </c>
-      <c r="AI46">
-        <v>5.01740526594922</v>
-      </c>
-      <c r="AJ46">
-        <v>1.596754170851066</v>
-      </c>
-      <c r="AK46">
-        <v>10.965107155092</v>
-      </c>
-      <c r="AL46">
-        <v>24.95249388392537</v>
-      </c>
-      <c r="AM46">
-        <v>10.14287430192416</v>
-      </c>
-      <c r="AN46">
-        <v>11.87311531377017</v>
-      </c>
-      <c r="AO46">
-        <v>0.2990211346592658</v>
-      </c>
-      <c r="AP46">
-        <v>0.0996737115530886</v>
-      </c>
-      <c r="AQ46">
-        <v>0</v>
-      </c>
-      <c r="AR46">
-        <v>10.0956433083359</v>
-      </c>
-      <c r="AS46">
-        <v>41.55915461362937</v>
-      </c>
-      <c r="AT46">
-        <v>21.85034038017575</v>
-      </c>
-      <c r="AU46">
-        <v>19.63861253320279</v>
-      </c>
-      <c r="AV46">
         <v>6.457554318443832</v>
       </c>
     </row>
-    <row r="47" spans="1:48">
+    <row r="47" spans="1:32">
       <c r="A47" s="1">
         <v>63796</v>
       </c>
       <c r="B47" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C47" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D47">
         <v>202111</v>
@@ -7278,10 +5022,10 @@
         <v>1759201609</v>
       </c>
       <c r="G47" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H47" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I47">
         <v>4831051000</v>
@@ -7290,7 +5034,7 @@
         <v>1559.090909090909</v>
       </c>
       <c r="K47" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L47">
         <v>8012757</v>
@@ -7302,7 +5046,7 @@
         <v>516923</v>
       </c>
       <c r="O47">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P47">
         <v>0</v>
@@ -7311,108 +5055,60 @@
         <v>0</v>
       </c>
       <c r="R47">
-        <v>0</v>
+        <v>43.29</v>
       </c>
       <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <v>56.71</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>0</v>
+      </c>
+      <c r="AB47">
+        <v>0</v>
+      </c>
+      <c r="AC47">
         <v>7.69</v>
       </c>
-      <c r="T47">
-        <v>0</v>
-      </c>
-      <c r="U47">
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
         <v>92.31</v>
       </c>
-      <c r="V47">
-        <v>0</v>
-      </c>
-      <c r="W47">
-        <v>0</v>
-      </c>
-      <c r="X47">
-        <v>0</v>
-      </c>
-      <c r="Y47">
-        <v>43.29</v>
-      </c>
-      <c r="Z47">
-        <v>56.71</v>
-      </c>
-      <c r="AA47">
-        <v>0</v>
-      </c>
-      <c r="AB47">
-        <v>0</v>
-      </c>
-      <c r="AC47">
-        <v>0</v>
-      </c>
-      <c r="AD47">
-        <v>0</v>
-      </c>
-      <c r="AE47">
-        <v>0</v>
-      </c>
       <c r="AF47">
         <v>0</v>
       </c>
-      <c r="AG47">
-        <v>0</v>
-      </c>
-      <c r="AH47">
-        <v>43.29</v>
-      </c>
-      <c r="AI47">
-        <v>0</v>
-      </c>
-      <c r="AJ47">
-        <v>0</v>
-      </c>
-      <c r="AK47">
-        <v>0</v>
-      </c>
-      <c r="AL47">
-        <v>0</v>
-      </c>
-      <c r="AM47">
-        <v>56.71</v>
-      </c>
-      <c r="AN47">
-        <v>0</v>
-      </c>
-      <c r="AO47">
-        <v>0</v>
-      </c>
-      <c r="AP47">
-        <v>0</v>
-      </c>
-      <c r="AQ47">
-        <v>0</v>
-      </c>
-      <c r="AR47">
-        <v>0</v>
-      </c>
-      <c r="AS47">
-        <v>7.69</v>
-      </c>
-      <c r="AT47">
-        <v>0</v>
-      </c>
-      <c r="AU47">
-        <v>92.31</v>
-      </c>
-      <c r="AV47">
-        <v>0</v>
-      </c>
     </row>
-    <row r="48" spans="1:48">
+    <row r="48" spans="1:32">
       <c r="A48" s="1">
         <v>64396</v>
       </c>
       <c r="B48" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C48" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D48">
         <v>202112</v>
@@ -7424,10 +5120,10 @@
         <v>6128201787</v>
       </c>
       <c r="G48" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H48" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I48">
         <v>4831051000</v>
@@ -7436,7 +5132,7 @@
         <v>0</v>
       </c>
       <c r="K48" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L48">
         <v>424461602</v>
@@ -7448,117 +5144,69 @@
         <v>50851.99496825207</v>
       </c>
       <c r="O48">
-        <v>90.64052151723256</v>
+        <v>1.665461159617448</v>
       </c>
       <c r="P48">
-        <v>9.359478482767447</v>
+        <v>8.196678336948839</v>
       </c>
       <c r="Q48">
-        <v>2.44952486010737</v>
+        <v>10.05860867980233</v>
       </c>
       <c r="R48">
-        <v>17.21996498915348</v>
+        <v>6.471512946794183</v>
       </c>
       <c r="S48">
-        <v>14.741449064031</v>
+        <v>12.40314138125502</v>
       </c>
       <c r="T48">
-        <v>16.62458612908878</v>
+        <v>2.687965535973263</v>
       </c>
       <c r="U48">
-        <v>18.34214472412984</v>
+        <v>7.683345307404273</v>
       </c>
       <c r="V48">
-        <v>23.71242298816938</v>
+        <v>25.26951349361396</v>
       </c>
       <c r="W48">
-        <v>6.909953622660078</v>
+        <v>11.33991861181356</v>
       </c>
       <c r="X48">
-        <v>50.23547070337825</v>
+        <v>14.22390092411704</v>
       </c>
       <c r="Y48">
-        <v>38.03577966206706</v>
+        <v>1.234249209849611</v>
       </c>
       <c r="Z48">
-        <v>8.282122902509329</v>
+        <v>0.4986086798023253</v>
       </c>
       <c r="AA48">
-        <v>0.814255348779464</v>
+        <v>0</v>
       </c>
       <c r="AB48">
-        <v>1.010469912329078</v>
+        <v>11.63398231230348</v>
       </c>
       <c r="AC48">
-        <v>1.004776866012017</v>
+        <v>39.58780889853023</v>
       </c>
       <c r="AD48">
-        <v>0.6171246049248055</v>
+        <v>21.99951872117752</v>
       </c>
       <c r="AE48">
-        <v>1.665461159617448</v>
+        <v>15.25371632612365</v>
       </c>
       <c r="AF48">
-        <v>8.196678336948839</v>
-      </c>
-      <c r="AG48">
-        <v>10.05860867980233</v>
-      </c>
-      <c r="AH48">
-        <v>6.471512946794183</v>
-      </c>
-      <c r="AI48">
-        <v>12.40314138125502</v>
-      </c>
-      <c r="AJ48">
-        <v>2.687965535973263</v>
-      </c>
-      <c r="AK48">
-        <v>7.683345307404273</v>
-      </c>
-      <c r="AL48">
-        <v>25.26951349361396</v>
-      </c>
-      <c r="AM48">
-        <v>11.33991861181356</v>
-      </c>
-      <c r="AN48">
-        <v>14.22390092411704</v>
-      </c>
-      <c r="AO48">
-        <v>1.234249209849611</v>
-      </c>
-      <c r="AP48">
-        <v>0.4986086798023253</v>
-      </c>
-      <c r="AQ48">
-        <v>0</v>
-      </c>
-      <c r="AR48">
-        <v>11.63398231230348</v>
-      </c>
-      <c r="AS48">
-        <v>39.58780889853023</v>
-      </c>
-      <c r="AT48">
-        <v>21.99951872117752</v>
-      </c>
-      <c r="AU48">
-        <v>15.25371632612365</v>
-      </c>
-      <c r="AV48">
         <v>9.792115852213177</v>
       </c>
     </row>
-    <row r="49" spans="1:48">
+    <row r="49" spans="1:32">
       <c r="A49" s="1">
         <v>66623</v>
       </c>
       <c r="B49" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C49" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D49">
         <v>202112</v>
@@ -7570,10 +5218,10 @@
         <v>1759201609</v>
       </c>
       <c r="G49" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H49" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I49">
         <v>4831051000</v>
@@ -7582,7 +5230,7 @@
         <v>1559.090909090909</v>
       </c>
       <c r="K49" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L49">
         <v>20007535</v>
@@ -7594,117 +5242,69 @@
         <v>418497</v>
       </c>
       <c r="O49">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P49">
-        <v>0</v>
+        <v>6.69</v>
       </c>
       <c r="Q49">
-        <v>0</v>
+        <v>17.26</v>
       </c>
       <c r="R49">
-        <v>0</v>
+        <v>46.99</v>
       </c>
       <c r="S49">
-        <v>42.77</v>
+        <v>0</v>
       </c>
       <c r="T49">
-        <v>17.56</v>
+        <v>7.76</v>
       </c>
       <c r="U49">
-        <v>28.33</v>
+        <v>0</v>
       </c>
       <c r="V49">
-        <v>11.34</v>
+        <v>0</v>
       </c>
       <c r="W49">
-        <v>0</v>
+        <v>21.3</v>
       </c>
       <c r="X49">
-        <v>32.01</v>
+        <v>0</v>
       </c>
       <c r="Y49">
-        <v>48.25</v>
+        <v>0</v>
       </c>
       <c r="Z49">
-        <v>19.74</v>
+        <v>0</v>
       </c>
       <c r="AA49">
         <v>0</v>
       </c>
       <c r="AB49">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="AC49">
-        <v>0</v>
+        <v>42.78</v>
       </c>
       <c r="AD49">
-        <v>0</v>
+        <v>18.35</v>
       </c>
       <c r="AE49">
-        <v>0</v>
+        <v>36.38</v>
       </c>
       <c r="AF49">
-        <v>6.69</v>
-      </c>
-      <c r="AG49">
-        <v>17.26</v>
-      </c>
-      <c r="AH49">
-        <v>46.99</v>
-      </c>
-      <c r="AI49">
-        <v>0</v>
-      </c>
-      <c r="AJ49">
-        <v>7.76</v>
-      </c>
-      <c r="AK49">
-        <v>0</v>
-      </c>
-      <c r="AL49">
-        <v>0</v>
-      </c>
-      <c r="AM49">
-        <v>21.3</v>
-      </c>
-      <c r="AN49">
-        <v>0</v>
-      </c>
-      <c r="AO49">
-        <v>0</v>
-      </c>
-      <c r="AP49">
-        <v>0</v>
-      </c>
-      <c r="AQ49">
-        <v>0</v>
-      </c>
-      <c r="AR49">
-        <v>2.48</v>
-      </c>
-      <c r="AS49">
-        <v>42.78</v>
-      </c>
-      <c r="AT49">
-        <v>18.35</v>
-      </c>
-      <c r="AU49">
-        <v>36.38</v>
-      </c>
-      <c r="AV49">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:48">
+    <row r="50" spans="1:32">
       <c r="A50" s="1">
         <v>67231</v>
       </c>
       <c r="B50" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C50" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D50">
         <v>202201</v>
@@ -7716,10 +5316,10 @@
         <v>6128201787</v>
       </c>
       <c r="G50" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H50" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I50">
         <v>4831051000</v>
@@ -7728,7 +5328,7 @@
         <v>0</v>
       </c>
       <c r="K50" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L50">
         <v>383498132</v>
@@ -7740,117 +5340,69 @@
         <v>58854.83916513198</v>
       </c>
       <c r="O50">
-        <v>85.47634464451576</v>
+        <v>0.9076560882961484</v>
       </c>
       <c r="P50">
-        <v>14.52365535548424</v>
+        <v>8.742957755058896</v>
       </c>
       <c r="Q50">
-        <v>2.030394101632808</v>
+        <v>12.21608127262012</v>
       </c>
       <c r="R50">
-        <v>22.79250091601489</v>
+        <v>10.41418209927552</v>
       </c>
       <c r="S50">
-        <v>11.92090858395628</v>
+        <v>6.077987452517761</v>
       </c>
       <c r="T50">
-        <v>26.77975064121043</v>
+        <v>1.132710147907578</v>
       </c>
       <c r="U50">
-        <v>13.89146494481491</v>
+        <v>14.29402509496448</v>
       </c>
       <c r="V50">
-        <v>11.13787407838013</v>
+        <v>11.56848792173517</v>
       </c>
       <c r="W50">
-        <v>11.43714335761093</v>
+        <v>21.24894667320048</v>
       </c>
       <c r="X50">
-        <v>43.42982914336594</v>
+        <v>13.38703874166459</v>
       </c>
       <c r="Y50">
-        <v>43.03381586307179</v>
+        <v>1.345055811249688</v>
       </c>
       <c r="Z50">
-        <v>8.65090332904151</v>
+        <v>0.4084984315647201</v>
       </c>
       <c r="AA50">
-        <v>1.266733491233798</v>
+        <v>0</v>
       </c>
       <c r="AB50">
-        <v>1.645969650120746</v>
+        <v>8.057582841055403</v>
       </c>
       <c r="AC50">
-        <v>1.095971401759005</v>
+        <v>39.06395535100026</v>
       </c>
       <c r="AD50">
-        <v>0.8668137450275768</v>
+        <v>30.18659750658186</v>
       </c>
       <c r="AE50">
-        <v>0.9076560882961484</v>
+        <v>14.46681199338932</v>
       </c>
       <c r="AF50">
-        <v>8.742957755058896</v>
-      </c>
-      <c r="AG50">
-        <v>12.21608127262012</v>
-      </c>
-      <c r="AH50">
-        <v>10.41418209927552</v>
-      </c>
-      <c r="AI50">
-        <v>6.077987452517761</v>
-      </c>
-      <c r="AJ50">
-        <v>1.132710147907578</v>
-      </c>
-      <c r="AK50">
-        <v>14.29402509496448</v>
-      </c>
-      <c r="AL50">
-        <v>11.56848792173517</v>
-      </c>
-      <c r="AM50">
-        <v>21.24894667320048</v>
-      </c>
-      <c r="AN50">
-        <v>13.38703874166459</v>
-      </c>
-      <c r="AO50">
-        <v>1.345055811249688</v>
-      </c>
-      <c r="AP50">
-        <v>0.4084984315647201</v>
-      </c>
-      <c r="AQ50">
-        <v>0</v>
-      </c>
-      <c r="AR50">
-        <v>8.057582841055403</v>
-      </c>
-      <c r="AS50">
-        <v>39.06395535100026</v>
-      </c>
-      <c r="AT50">
-        <v>30.18659750658186</v>
-      </c>
-      <c r="AU50">
-        <v>14.46681199338932</v>
-      </c>
-      <c r="AV50">
         <v>6.481424817918017</v>
       </c>
     </row>
-    <row r="51" spans="1:48">
+    <row r="51" spans="1:32">
       <c r="A51" s="1">
         <v>69454</v>
       </c>
       <c r="B51" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C51" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D51">
         <v>202201</v>
@@ -7862,10 +5414,10 @@
         <v>1759201609</v>
       </c>
       <c r="G51" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H51" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I51">
         <v>4831051000</v>
@@ -7874,7 +5426,7 @@
         <v>1559.090909090909</v>
       </c>
       <c r="K51" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L51">
         <v>8624153</v>
@@ -7886,117 +5438,69 @@
         <v>333696</v>
       </c>
       <c r="O51">
-        <v>90.15000000000001</v>
+        <v>0</v>
       </c>
       <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>40.23</v>
+      </c>
+      <c r="R51">
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <v>0</v>
+      </c>
+      <c r="V51">
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <v>48.25</v>
+      </c>
+      <c r="X51">
+        <v>11.53</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>0</v>
+      </c>
+      <c r="AB51">
+        <v>4.35</v>
+      </c>
+      <c r="AC51">
+        <v>41.9</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
         <v>9.85</v>
       </c>
-      <c r="Q51">
-        <v>9.85</v>
-      </c>
-      <c r="R51">
-        <v>0</v>
-      </c>
-      <c r="S51">
-        <v>0</v>
-      </c>
-      <c r="T51">
-        <v>88.47</v>
-      </c>
-      <c r="U51">
-        <v>0</v>
-      </c>
-      <c r="V51">
-        <v>1.67</v>
-      </c>
-      <c r="W51">
-        <v>0</v>
-      </c>
-      <c r="X51">
-        <v>0</v>
-      </c>
-      <c r="Y51">
-        <v>50.08</v>
-      </c>
-      <c r="Z51">
-        <v>49.92</v>
-      </c>
-      <c r="AA51">
-        <v>0</v>
-      </c>
-      <c r="AB51">
-        <v>0</v>
-      </c>
-      <c r="AC51">
-        <v>0</v>
-      </c>
-      <c r="AD51">
-        <v>0</v>
-      </c>
-      <c r="AE51">
-        <v>0</v>
-      </c>
       <c r="AF51">
-        <v>0</v>
-      </c>
-      <c r="AG51">
-        <v>40.23</v>
-      </c>
-      <c r="AH51">
-        <v>0</v>
-      </c>
-      <c r="AI51">
-        <v>0</v>
-      </c>
-      <c r="AJ51">
-        <v>0</v>
-      </c>
-      <c r="AK51">
-        <v>0</v>
-      </c>
-      <c r="AL51">
-        <v>0</v>
-      </c>
-      <c r="AM51">
-        <v>48.25</v>
-      </c>
-      <c r="AN51">
-        <v>11.53</v>
-      </c>
-      <c r="AO51">
-        <v>0</v>
-      </c>
-      <c r="AP51">
-        <v>0</v>
-      </c>
-      <c r="AQ51">
-        <v>0</v>
-      </c>
-      <c r="AR51">
-        <v>4.35</v>
-      </c>
-      <c r="AS51">
-        <v>41.9</v>
-      </c>
-      <c r="AT51">
-        <v>0</v>
-      </c>
-      <c r="AU51">
-        <v>9.85</v>
-      </c>
-      <c r="AV51">
         <v>43.9</v>
       </c>
     </row>
-    <row r="52" spans="1:48">
+    <row r="52" spans="1:32">
       <c r="A52" s="1">
         <v>70067</v>
       </c>
       <c r="B52" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C52" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D52">
         <v>202202</v>
@@ -8008,10 +5512,10 @@
         <v>6128201787</v>
       </c>
       <c r="G52" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H52" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I52">
         <v>4831051000</v>
@@ -8020,7 +5524,7 @@
         <v>0</v>
       </c>
       <c r="K52" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L52">
         <v>356309697</v>
@@ -8032,117 +5536,69 @@
         <v>48523.7228653139</v>
       </c>
       <c r="O52">
-        <v>86.22325582553539</v>
+        <v>1.999914691628502</v>
       </c>
       <c r="P52">
-        <v>13.77674417446461</v>
+        <v>5.395649273053604</v>
       </c>
       <c r="Q52">
-        <v>4.115997726214002</v>
+        <v>9.310770181901617</v>
       </c>
       <c r="R52">
-        <v>24.43189089159142</v>
+        <v>10.21475112859474</v>
       </c>
       <c r="S52">
-        <v>12.58940043484138</v>
+        <v>12.40468474075798</v>
       </c>
       <c r="T52">
-        <v>13.75251419040105</v>
+        <v>2.177142169554819</v>
       </c>
       <c r="U52">
-        <v>17.20867531368365</v>
+        <v>14.69644078204809</v>
       </c>
       <c r="V52">
-        <v>19.13885555665918</v>
+        <v>19.97765883290008</v>
       </c>
       <c r="W52">
-        <v>8.772644559516436</v>
+        <v>13.9442654185749</v>
       </c>
       <c r="X52">
-        <v>45.49821300538447</v>
+        <v>9.868786762264287</v>
       </c>
       <c r="Y52">
-        <v>44.03059234548422</v>
+        <v>0.6983863606159447</v>
       </c>
       <c r="Z52">
-        <v>8.016194483166142</v>
+        <v>0.1495995983516553</v>
       </c>
       <c r="AA52">
-        <v>0.9217962889177277</v>
+        <v>0</v>
       </c>
       <c r="AB52">
-        <v>0.6051872966847713</v>
+        <v>11.84961370577012</v>
       </c>
       <c r="AC52">
-        <v>0.5388483369847776</v>
+        <v>44.34482921729184</v>
       </c>
       <c r="AD52">
-        <v>0.3791895704707695</v>
+        <v>20.92149289650121</v>
       </c>
       <c r="AE52">
-        <v>1.999914691628502</v>
+        <v>12.70765883290008</v>
       </c>
       <c r="AF52">
-        <v>5.395649273053604</v>
-      </c>
-      <c r="AG52">
-        <v>9.310770181901617</v>
-      </c>
-      <c r="AH52">
-        <v>10.21475112859474</v>
-      </c>
-      <c r="AI52">
-        <v>12.40468474075798</v>
-      </c>
-      <c r="AJ52">
-        <v>2.177142169554819</v>
-      </c>
-      <c r="AK52">
-        <v>14.69644078204809</v>
-      </c>
-      <c r="AL52">
-        <v>19.97765883290008</v>
-      </c>
-      <c r="AM52">
-        <v>13.9442654185749</v>
-      </c>
-      <c r="AN52">
-        <v>9.868786762264287</v>
-      </c>
-      <c r="AO52">
-        <v>0.6983863606159447</v>
-      </c>
-      <c r="AP52">
-        <v>0.1495995983516553</v>
-      </c>
-      <c r="AQ52">
-        <v>0</v>
-      </c>
-      <c r="AR52">
-        <v>11.84961370577012</v>
-      </c>
-      <c r="AS52">
-        <v>44.34482921729184</v>
-      </c>
-      <c r="AT52">
-        <v>20.92149289650121</v>
-      </c>
-      <c r="AU52">
-        <v>12.70765883290008</v>
-      </c>
-      <c r="AV52">
         <v>9.318440715662028</v>
       </c>
     </row>
-    <row r="53" spans="1:48">
+    <row r="53" spans="1:32">
       <c r="A53" s="1">
         <v>72288</v>
       </c>
       <c r="B53" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C53" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D53">
         <v>202202</v>
@@ -8154,10 +5610,10 @@
         <v>1759201609</v>
       </c>
       <c r="G53" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H53" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I53">
         <v>4831051000</v>
@@ -8166,7 +5622,7 @@
         <v>1559.090909090909</v>
       </c>
       <c r="K53" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L53">
         <v>11940810</v>
@@ -8178,117 +5634,69 @@
         <v>462734</v>
       </c>
       <c r="O53">
-        <v>67.11</v>
+        <v>0</v>
       </c>
       <c r="P53">
-        <v>32.89</v>
+        <v>1.37</v>
       </c>
       <c r="Q53">
+        <v>25.67</v>
+      </c>
+      <c r="R53">
+        <v>60.11</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>0</v>
+      </c>
+      <c r="U53">
+        <v>0</v>
+      </c>
+      <c r="V53">
+        <v>0</v>
+      </c>
+      <c r="W53">
+        <v>5.62</v>
+      </c>
+      <c r="X53">
         <v>7.22</v>
       </c>
-      <c r="R53">
-        <v>5.62</v>
-      </c>
-      <c r="S53">
-        <v>0</v>
-      </c>
-      <c r="T53">
-        <v>1.37</v>
-      </c>
-      <c r="U53">
-        <v>0</v>
-      </c>
-      <c r="V53">
-        <v>60.11</v>
-      </c>
-      <c r="W53">
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>0</v>
+      </c>
+      <c r="AB53">
+        <v>7</v>
+      </c>
+      <c r="AC53">
         <v>25.67</v>
       </c>
-      <c r="X53">
-        <v>60.11</v>
-      </c>
-      <c r="Y53">
-        <v>39.89</v>
-      </c>
-      <c r="Z53">
-        <v>0</v>
-      </c>
-      <c r="AA53">
-        <v>0</v>
-      </c>
-      <c r="AB53">
-        <v>0</v>
-      </c>
-      <c r="AC53">
-        <v>0</v>
-      </c>
       <c r="AD53">
         <v>0</v>
       </c>
       <c r="AE53">
-        <v>0</v>
+        <v>67.33</v>
       </c>
       <c r="AF53">
-        <v>1.37</v>
-      </c>
-      <c r="AG53">
-        <v>25.67</v>
-      </c>
-      <c r="AH53">
-        <v>60.11</v>
-      </c>
-      <c r="AI53">
-        <v>0</v>
-      </c>
-      <c r="AJ53">
-        <v>0</v>
-      </c>
-      <c r="AK53">
-        <v>0</v>
-      </c>
-      <c r="AL53">
-        <v>0</v>
-      </c>
-      <c r="AM53">
-        <v>5.62</v>
-      </c>
-      <c r="AN53">
-        <v>7.22</v>
-      </c>
-      <c r="AO53">
-        <v>0</v>
-      </c>
-      <c r="AP53">
-        <v>0</v>
-      </c>
-      <c r="AQ53">
-        <v>0</v>
-      </c>
-      <c r="AR53">
-        <v>7</v>
-      </c>
-      <c r="AS53">
-        <v>25.67</v>
-      </c>
-      <c r="AT53">
-        <v>0</v>
-      </c>
-      <c r="AU53">
-        <v>67.33</v>
-      </c>
-      <c r="AV53">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:48">
+    <row r="54" spans="1:32">
       <c r="A54" s="1">
         <v>72908</v>
       </c>
       <c r="B54" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C54" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D54">
         <v>202203</v>
@@ -8300,10 +5708,10 @@
         <v>6128201787</v>
       </c>
       <c r="G54" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H54" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I54">
         <v>4831051000</v>
@@ -8312,7 +5720,7 @@
         <v>0</v>
       </c>
       <c r="K54" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L54">
         <v>371220997</v>
@@ -8324,117 +5732,69 @@
         <v>45100.35196209452</v>
       </c>
       <c r="O54">
-        <v>87.62011678477334</v>
+        <v>2.988375022493676</v>
       </c>
       <c r="P54">
-        <v>12.37988321522664</v>
+        <v>7.138279725109406</v>
       </c>
       <c r="Q54">
-        <v>2.813178440631148</v>
+        <v>12.91468909435099</v>
       </c>
       <c r="R54">
-        <v>20.87315465762838</v>
+        <v>5.207062181129802</v>
       </c>
       <c r="S54">
-        <v>22.12351206416269</v>
+        <v>6.460619515684346</v>
       </c>
       <c r="T54">
-        <v>15.61931618752158</v>
+        <v>3.074858201730437</v>
       </c>
       <c r="U54">
-        <v>16.90486771493154</v>
+        <v>17.31349533337415</v>
       </c>
       <c r="V54">
-        <v>12.93230878998474</v>
+        <v>15.14634736806118</v>
       </c>
       <c r="W54">
-        <v>8.733707415531779</v>
+        <v>18.185956665323</v>
       </c>
       <c r="X54">
-        <v>46.29258762992332</v>
+        <v>11.57027162235115</v>
       </c>
       <c r="Y54">
-        <v>36.84776748099731</v>
+        <v>0.8191851329465611</v>
       </c>
       <c r="Z54">
-        <v>13.22784129099249</v>
+        <v>0.07963783686513831</v>
       </c>
       <c r="AA54">
-        <v>0.6298284316336773</v>
+        <v>0</v>
       </c>
       <c r="AB54">
-        <v>0.7024326269723369</v>
+        <v>12.75827972510941</v>
       </c>
       <c r="AC54">
-        <v>1.572847278086482</v>
+        <v>36.667769776611</v>
       </c>
       <c r="AD54">
-        <v>0.7266952613943871</v>
+        <v>22.93310463063596</v>
       </c>
       <c r="AE54">
-        <v>2.988375022493676</v>
+        <v>16.13801285935882</v>
       </c>
       <c r="AF54">
-        <v>7.138279725109406</v>
-      </c>
-      <c r="AG54">
-        <v>12.91468909435099</v>
-      </c>
-      <c r="AH54">
-        <v>5.207062181129802</v>
-      </c>
-      <c r="AI54">
-        <v>6.460619515684346</v>
-      </c>
-      <c r="AJ54">
-        <v>3.074858201730437</v>
-      </c>
-      <c r="AK54">
-        <v>17.31349533337415</v>
-      </c>
-      <c r="AL54">
-        <v>15.14634736806118</v>
-      </c>
-      <c r="AM54">
-        <v>18.185956665323</v>
-      </c>
-      <c r="AN54">
-        <v>11.57027162235115</v>
-      </c>
-      <c r="AO54">
-        <v>0.8191851329465611</v>
-      </c>
-      <c r="AP54">
-        <v>0.07963783686513831</v>
-      </c>
-      <c r="AQ54">
-        <v>0</v>
-      </c>
-      <c r="AR54">
-        <v>12.75827972510941</v>
-      </c>
-      <c r="AS54">
-        <v>36.667769776611</v>
-      </c>
-      <c r="AT54">
-        <v>22.93310463063596</v>
-      </c>
-      <c r="AU54">
-        <v>16.13801285935882</v>
-      </c>
-      <c r="AV54">
         <v>10.60396476808126</v>
       </c>
     </row>
-    <row r="55" spans="1:48">
+    <row r="55" spans="1:32">
       <c r="A55" s="1">
         <v>75129</v>
       </c>
       <c r="B55" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C55" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D55">
         <v>202203</v>
@@ -8446,10 +5806,10 @@
         <v>1759201609</v>
       </c>
       <c r="G55" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H55" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I55">
         <v>4831051000</v>
@@ -8458,7 +5818,7 @@
         <v>1559.090909090909</v>
       </c>
       <c r="K55" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L55">
         <v>9063780</v>
@@ -8470,19 +5830,19 @@
         <v>447370</v>
       </c>
       <c r="O55">
-        <v>12.17</v>
+        <v>0</v>
       </c>
       <c r="P55">
-        <v>87.83</v>
+        <v>0</v>
       </c>
       <c r="Q55">
         <v>0</v>
       </c>
       <c r="R55">
-        <v>12.17</v>
+        <v>50.54</v>
       </c>
       <c r="S55">
-        <v>50.54</v>
+        <v>0</v>
       </c>
       <c r="T55">
         <v>0</v>
@@ -8494,93 +5854,45 @@
         <v>0</v>
       </c>
       <c r="W55">
-        <v>37.3</v>
+        <v>42.43</v>
       </c>
       <c r="X55">
         <v>7.04</v>
       </c>
       <c r="Y55">
-        <v>87.83</v>
+        <v>0</v>
       </c>
       <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>0</v>
+      </c>
+      <c r="AB55">
         <v>5.13</v>
       </c>
-      <c r="AA55">
-        <v>0</v>
-      </c>
-      <c r="AB55">
-        <v>0</v>
-      </c>
       <c r="AC55">
-        <v>0</v>
+        <v>50.54</v>
       </c>
       <c r="AD55">
         <v>0</v>
       </c>
       <c r="AE55">
-        <v>0</v>
+        <v>7.04</v>
       </c>
       <c r="AF55">
-        <v>0</v>
-      </c>
-      <c r="AG55">
-        <v>0</v>
-      </c>
-      <c r="AH55">
-        <v>50.54</v>
-      </c>
-      <c r="AI55">
-        <v>0</v>
-      </c>
-      <c r="AJ55">
-        <v>0</v>
-      </c>
-      <c r="AK55">
-        <v>0</v>
-      </c>
-      <c r="AL55">
-        <v>0</v>
-      </c>
-      <c r="AM55">
-        <v>42.43</v>
-      </c>
-      <c r="AN55">
-        <v>7.04</v>
-      </c>
-      <c r="AO55">
-        <v>0</v>
-      </c>
-      <c r="AP55">
-        <v>0</v>
-      </c>
-      <c r="AQ55">
-        <v>0</v>
-      </c>
-      <c r="AR55">
-        <v>5.13</v>
-      </c>
-      <c r="AS55">
-        <v>50.54</v>
-      </c>
-      <c r="AT55">
-        <v>0</v>
-      </c>
-      <c r="AU55">
-        <v>7.04</v>
-      </c>
-      <c r="AV55">
         <v>37.3</v>
       </c>
     </row>
-    <row r="56" spans="1:48">
+    <row r="56" spans="1:32">
       <c r="A56" s="1">
         <v>75757</v>
       </c>
       <c r="B56" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C56" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D56">
         <v>202204</v>
@@ -8592,10 +5904,10 @@
         <v>6128201787</v>
       </c>
       <c r="G56" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H56" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I56">
         <v>4831051000</v>
@@ -8604,7 +5916,7 @@
         <v>0</v>
       </c>
       <c r="K56" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L56">
         <v>350068225</v>
@@ -8616,117 +5928,69 @@
         <v>49746.79906210033</v>
       </c>
       <c r="O56">
-        <v>88.16952491475055</v>
+        <v>1.204298299281519</v>
       </c>
       <c r="P56">
-        <v>11.83047508524946</v>
+        <v>6.727361440045009</v>
       </c>
       <c r="Q56">
-        <v>2.188684693533667</v>
+        <v>14.09625196702729</v>
       </c>
       <c r="R56">
-        <v>20.21216645483891</v>
+        <v>10.85399741721775</v>
       </c>
       <c r="S56">
-        <v>10.4866399506839</v>
+        <v>10.85013164576705</v>
       </c>
       <c r="T56">
-        <v>18.1004245808085</v>
+        <v>2.978936064534278</v>
       </c>
       <c r="U56">
-        <v>14.38949030435424</v>
+        <v>5.340005960266744</v>
       </c>
       <c r="V56">
-        <v>24.980803624065</v>
+        <v>15.14289092433339</v>
       </c>
       <c r="W56">
-        <v>9.641790391715785</v>
+        <v>19.83140340143696</v>
       </c>
       <c r="X56">
-        <v>51.0095545582579</v>
+        <v>12.96480799492727</v>
       </c>
       <c r="Y56">
-        <v>32.37446952233383</v>
+        <v>0.6870635381146061</v>
       </c>
       <c r="Z56">
-        <v>12.92621735663098</v>
+        <v>0.2987232774411331</v>
       </c>
       <c r="AA56">
-        <v>0.7026049429364805</v>
+        <v>0</v>
       </c>
       <c r="AB56">
-        <v>0.457963204172558</v>
+        <v>9.491871533041881</v>
       </c>
       <c r="AC56">
-        <v>1.921786418204623</v>
+        <v>51.83645581372031</v>
       </c>
       <c r="AD56">
-        <v>0.5974465548822662</v>
+        <v>14.80052062280146</v>
       </c>
       <c r="AE56">
-        <v>1.204298299281519</v>
+        <v>17.5151949852061</v>
       </c>
       <c r="AF56">
-        <v>6.727361440045009</v>
-      </c>
-      <c r="AG56">
-        <v>14.09625196702729</v>
-      </c>
-      <c r="AH56">
-        <v>10.85399741721775</v>
-      </c>
-      <c r="AI56">
-        <v>10.85013164576705</v>
-      </c>
-      <c r="AJ56">
-        <v>2.978936064534278</v>
-      </c>
-      <c r="AK56">
-        <v>5.340005960266744</v>
-      </c>
-      <c r="AL56">
-        <v>15.14289092433339</v>
-      </c>
-      <c r="AM56">
-        <v>19.83140340143696</v>
-      </c>
-      <c r="AN56">
-        <v>12.96480799492727</v>
-      </c>
-      <c r="AO56">
-        <v>0.6870635381146061</v>
-      </c>
-      <c r="AP56">
-        <v>0.2987232774411331</v>
-      </c>
-      <c r="AQ56">
-        <v>0</v>
-      </c>
-      <c r="AR56">
-        <v>9.491871533041881</v>
-      </c>
-      <c r="AS56">
-        <v>51.83645581372031</v>
-      </c>
-      <c r="AT56">
-        <v>14.80052062280146</v>
-      </c>
-      <c r="AU56">
-        <v>17.5151949852061</v>
-      </c>
-      <c r="AV56">
         <v>5.370212787093144</v>
       </c>
     </row>
-    <row r="57" spans="1:48">
+    <row r="57" spans="1:32">
       <c r="A57" s="1">
         <v>77971</v>
       </c>
       <c r="B57" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C57" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D57">
         <v>202204</v>
@@ -8738,10 +6002,10 @@
         <v>1759201609</v>
       </c>
       <c r="G57" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H57" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I57">
         <v>4831051000</v>
@@ -8750,7 +6014,7 @@
         <v>1559.090909090909</v>
       </c>
       <c r="K57" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L57">
         <v>13079613</v>
@@ -8762,117 +6026,69 @@
         <v>511862</v>
       </c>
       <c r="O57">
-        <v>71.13</v>
+        <v>0</v>
       </c>
       <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>53.33</v>
+      </c>
+      <c r="R57">
+        <v>0</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>0</v>
+      </c>
+      <c r="U57">
+        <v>0</v>
+      </c>
+      <c r="V57">
+        <v>0</v>
+      </c>
+      <c r="W57">
+        <v>34.43</v>
+      </c>
+      <c r="X57">
+        <v>12.24</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>0</v>
+      </c>
+      <c r="AB57">
+        <v>5.55</v>
+      </c>
+      <c r="AC57">
+        <v>26.75</v>
+      </c>
+      <c r="AD57">
+        <v>26.58</v>
+      </c>
+      <c r="AE57">
+        <v>12.24</v>
+      </c>
+      <c r="AF57">
         <v>28.87</v>
       </c>
-      <c r="Q57">
-        <v>0</v>
-      </c>
-      <c r="R57">
-        <v>5.55</v>
-      </c>
-      <c r="S57">
-        <v>26.75</v>
-      </c>
-      <c r="T57">
-        <v>0</v>
-      </c>
-      <c r="U57">
-        <v>26.58</v>
-      </c>
-      <c r="V57">
-        <v>12.24</v>
-      </c>
-      <c r="W57">
-        <v>28.87</v>
-      </c>
-      <c r="X57">
-        <v>0</v>
-      </c>
-      <c r="Y57">
-        <v>100</v>
-      </c>
-      <c r="Z57">
-        <v>0</v>
-      </c>
-      <c r="AA57">
-        <v>0</v>
-      </c>
-      <c r="AB57">
-        <v>0</v>
-      </c>
-      <c r="AC57">
-        <v>0</v>
-      </c>
-      <c r="AD57">
-        <v>0</v>
-      </c>
-      <c r="AE57">
-        <v>0</v>
-      </c>
-      <c r="AF57">
-        <v>0</v>
-      </c>
-      <c r="AG57">
-        <v>53.33</v>
-      </c>
-      <c r="AH57">
-        <v>0</v>
-      </c>
-      <c r="AI57">
-        <v>0</v>
-      </c>
-      <c r="AJ57">
-        <v>0</v>
-      </c>
-      <c r="AK57">
-        <v>0</v>
-      </c>
-      <c r="AL57">
-        <v>0</v>
-      </c>
-      <c r="AM57">
-        <v>34.43</v>
-      </c>
-      <c r="AN57">
-        <v>12.24</v>
-      </c>
-      <c r="AO57">
-        <v>0</v>
-      </c>
-      <c r="AP57">
-        <v>0</v>
-      </c>
-      <c r="AQ57">
-        <v>0</v>
-      </c>
-      <c r="AR57">
-        <v>5.55</v>
-      </c>
-      <c r="AS57">
-        <v>26.75</v>
-      </c>
-      <c r="AT57">
-        <v>26.58</v>
-      </c>
-      <c r="AU57">
-        <v>12.24</v>
-      </c>
-      <c r="AV57">
-        <v>28.87</v>
-      </c>
     </row>
-    <row r="58" spans="1:48">
+    <row r="58" spans="1:32">
       <c r="A58" s="1">
         <v>78612</v>
       </c>
       <c r="B58" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C58" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D58">
         <v>202205</v>
@@ -8884,10 +6100,10 @@
         <v>6128201787</v>
       </c>
       <c r="G58" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H58" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I58">
         <v>4831051000</v>
@@ -8896,7 +6112,7 @@
         <v>0</v>
       </c>
       <c r="K58" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L58">
         <v>560788797</v>
@@ -8908,117 +6124,69 @@
         <v>67916.7732832748</v>
       </c>
       <c r="O58">
-        <v>89.96713841836966</v>
+        <v>1.03984336184947</v>
       </c>
       <c r="P58">
-        <v>10.03286158163035</v>
+        <v>4.991381107547339</v>
       </c>
       <c r="Q58">
-        <v>3.22884626133143</v>
+        <v>9.725026738720675</v>
       </c>
       <c r="R58">
-        <v>33.4754221282705</v>
+        <v>10.34497705545284</v>
       </c>
       <c r="S58">
-        <v>14.70005347744135</v>
+        <v>7.611555857775097</v>
       </c>
       <c r="T58">
-        <v>11.75107162541979</v>
+        <v>1.357073558407766</v>
       </c>
       <c r="U58">
-        <v>11.17459218963321</v>
+        <v>8.715937931816423</v>
       </c>
       <c r="V58">
-        <v>19.17675355255002</v>
+        <v>26.04278412134542</v>
       </c>
       <c r="W58">
-        <v>6.483299924891332</v>
+        <v>17.03184722782542</v>
       </c>
       <c r="X58">
-        <v>42.57111164374776</v>
+        <v>13.12961219879719</v>
       </c>
       <c r="Y58">
-        <v>45.57377742768994</v>
+        <v>0.06043075491395738</v>
       </c>
       <c r="Z58">
-        <v>7.910736442867991</v>
+        <v>0.5179637040431105</v>
       </c>
       <c r="AA58">
-        <v>0.9521461862227609</v>
+        <v>0</v>
       </c>
       <c r="AB58">
-        <v>0.9104126428367292</v>
+        <v>9.301918817343994</v>
       </c>
       <c r="AC58">
-        <v>0.6574154705162558</v>
+        <v>31.31531896756133</v>
       </c>
       <c r="AD58">
-        <v>1.434361026580921</v>
+        <v>33.87680996537454</v>
       </c>
       <c r="AE58">
-        <v>1.03984336184947</v>
+        <v>19.44762558610813</v>
       </c>
       <c r="AF58">
-        <v>4.991381107547339</v>
-      </c>
-      <c r="AG58">
-        <v>9.725026738720675</v>
-      </c>
-      <c r="AH58">
-        <v>10.34497705545284</v>
-      </c>
-      <c r="AI58">
-        <v>7.611555857775097</v>
-      </c>
-      <c r="AJ58">
-        <v>1.357073558407766</v>
-      </c>
-      <c r="AK58">
-        <v>8.715937931816423</v>
-      </c>
-      <c r="AL58">
-        <v>26.04278412134542</v>
-      </c>
-      <c r="AM58">
-        <v>17.03184722782542</v>
-      </c>
-      <c r="AN58">
-        <v>13.12961219879719</v>
-      </c>
-      <c r="AO58">
-        <v>0.06043075491395738</v>
-      </c>
-      <c r="AP58">
-        <v>0.5179637040431105</v>
-      </c>
-      <c r="AQ58">
-        <v>0</v>
-      </c>
-      <c r="AR58">
-        <v>9.301918817343994</v>
-      </c>
-      <c r="AS58">
-        <v>31.31531896756133</v>
-      </c>
-      <c r="AT58">
-        <v>33.87680996537454</v>
-      </c>
-      <c r="AU58">
-        <v>19.44762558610813</v>
-      </c>
-      <c r="AV58">
         <v>5.46997136419257</v>
       </c>
     </row>
-    <row r="59" spans="1:48">
+    <row r="59" spans="1:32">
       <c r="A59" s="1">
         <v>80823</v>
       </c>
       <c r="B59" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C59" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D59">
         <v>202205</v>
@@ -9030,10 +6198,10 @@
         <v>1759201609</v>
       </c>
       <c r="G59" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H59" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I59">
         <v>4831051000</v>
@@ -9042,7 +6210,7 @@
         <v>1559.090909090909</v>
       </c>
       <c r="K59" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L59">
         <v>19629424</v>
@@ -9054,22 +6222,22 @@
         <v>476568</v>
       </c>
       <c r="O59">
-        <v>75.64</v>
+        <v>0</v>
       </c>
       <c r="P59">
-        <v>24.36</v>
+        <v>0</v>
       </c>
       <c r="Q59">
-        <v>0.55</v>
+        <v>29.43</v>
       </c>
       <c r="R59">
-        <v>26.21</v>
+        <v>0</v>
       </c>
       <c r="S59">
         <v>0</v>
       </c>
       <c r="T59">
-        <v>49.43</v>
+        <v>0</v>
       </c>
       <c r="U59">
         <v>0</v>
@@ -9078,81 +6246,33 @@
         <v>0</v>
       </c>
       <c r="W59">
-        <v>23.81</v>
+        <v>52.67</v>
       </c>
       <c r="X59">
-        <v>49.61</v>
+        <v>17.9</v>
       </c>
       <c r="Y59">
-        <v>29.82</v>
+        <v>0</v>
       </c>
       <c r="Z59">
-        <v>20.57</v>
+        <v>0</v>
       </c>
       <c r="AA59">
         <v>0</v>
       </c>
       <c r="AB59">
-        <v>0</v>
+        <v>16.35</v>
       </c>
       <c r="AC59">
-        <v>0</v>
+        <v>10.55</v>
       </c>
       <c r="AD59">
-        <v>0</v>
+        <v>47.9</v>
       </c>
       <c r="AE59">
-        <v>0</v>
+        <v>4.51</v>
       </c>
       <c r="AF59">
-        <v>0</v>
-      </c>
-      <c r="AG59">
-        <v>29.43</v>
-      </c>
-      <c r="AH59">
-        <v>0</v>
-      </c>
-      <c r="AI59">
-        <v>0</v>
-      </c>
-      <c r="AJ59">
-        <v>0</v>
-      </c>
-      <c r="AK59">
-        <v>0</v>
-      </c>
-      <c r="AL59">
-        <v>0</v>
-      </c>
-      <c r="AM59">
-        <v>52.67</v>
-      </c>
-      <c r="AN59">
-        <v>17.9</v>
-      </c>
-      <c r="AO59">
-        <v>0</v>
-      </c>
-      <c r="AP59">
-        <v>0</v>
-      </c>
-      <c r="AQ59">
-        <v>0</v>
-      </c>
-      <c r="AR59">
-        <v>16.35</v>
-      </c>
-      <c r="AS59">
-        <v>10.55</v>
-      </c>
-      <c r="AT59">
-        <v>47.9</v>
-      </c>
-      <c r="AU59">
-        <v>4.51</v>
-      </c>
-      <c r="AV59">
         <v>20.69</v>
       </c>
     </row>
